--- a/gemeente_statsec_wijken/gemeentegedragen_wijken.xlsx
+++ b/gemeente_statsec_wijken/gemeentegedragen_wijken.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plu3532\Documents\gebiedsindelingen\gemeentegedragenwijken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plu3532\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="aandachtspunten" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9341" uniqueCount="2868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9341" uniqueCount="2877">
   <si>
     <t>CODSEC</t>
   </si>
@@ -8632,6 +8632,33 @@
   </si>
   <si>
     <t>ZZZZ</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>73037ML</t>
+  </si>
+  <si>
+    <t>Mellaar</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Dorperveld</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>72021DV</t>
+  </si>
+  <si>
+    <t>Pelt</t>
+  </si>
+  <si>
+    <t>Neerpelt-Centrum</t>
   </si>
 </sst>
 </file>
@@ -23038,7 +23065,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A761" sqref="A761"/>
+      <selection pane="bottomLeft" activeCell="A1397" sqref="A1397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30273,7 +30300,7 @@
         <v>2274</v>
       </c>
       <c r="G301" s="13" t="str">
-        <f>CONCATENATE(B301,F301)</f>
+        <f t="shared" ref="G301:G332" si="5">CONCATENATE(B301,F301)</f>
         <v>13004_12</v>
       </c>
     </row>
@@ -30297,7 +30324,7 @@
         <v>2274</v>
       </c>
       <c r="G302" s="13" t="str">
-        <f>CONCATENATE(B302,F302)</f>
+        <f t="shared" si="5"/>
         <v>13004_12</v>
       </c>
     </row>
@@ -30321,7 +30348,7 @@
         <v>2274</v>
       </c>
       <c r="G303" s="13" t="str">
-        <f>CONCATENATE(B303,F303)</f>
+        <f t="shared" si="5"/>
         <v>13004_12</v>
       </c>
     </row>
@@ -30345,7 +30372,7 @@
         <v>2274</v>
       </c>
       <c r="G304" s="13" t="str">
-        <f>CONCATENATE(B304,F304)</f>
+        <f t="shared" si="5"/>
         <v>13004_12</v>
       </c>
     </row>
@@ -30369,7 +30396,7 @@
         <v>2274</v>
       </c>
       <c r="G305" s="13" t="str">
-        <f>CONCATENATE(B305,F305)</f>
+        <f t="shared" si="5"/>
         <v>13004_12</v>
       </c>
     </row>
@@ -30393,7 +30420,7 @@
         <v>2274</v>
       </c>
       <c r="G306" s="13" t="str">
-        <f>CONCATENATE(B306,F306)</f>
+        <f t="shared" si="5"/>
         <v>13004_12</v>
       </c>
     </row>
@@ -30417,7 +30444,7 @@
         <v>2275</v>
       </c>
       <c r="G307" s="13" t="str">
-        <f>CONCATENATE(B307,F307)</f>
+        <f t="shared" si="5"/>
         <v>13004_15</v>
       </c>
     </row>
@@ -30441,7 +30468,7 @@
         <v>2275</v>
       </c>
       <c r="G308" s="13" t="str">
-        <f>CONCATENATE(B308,F308)</f>
+        <f t="shared" si="5"/>
         <v>13004_15</v>
       </c>
     </row>
@@ -30465,7 +30492,7 @@
         <v>2275</v>
       </c>
       <c r="G309" s="13" t="str">
-        <f>CONCATENATE(B309,F309)</f>
+        <f t="shared" si="5"/>
         <v>13004_15</v>
       </c>
     </row>
@@ -30489,7 +30516,7 @@
         <v>2275</v>
       </c>
       <c r="G310" s="13" t="str">
-        <f>CONCATENATE(B310,F310)</f>
+        <f t="shared" si="5"/>
         <v>13004_15</v>
       </c>
     </row>
@@ -30513,7 +30540,7 @@
         <v>2275</v>
       </c>
       <c r="G311" s="13" t="str">
-        <f>CONCATENATE(B311,F311)</f>
+        <f t="shared" si="5"/>
         <v>13004_15</v>
       </c>
     </row>
@@ -30537,7 +30564,7 @@
         <v>2275</v>
       </c>
       <c r="G312" s="13" t="str">
-        <f>CONCATENATE(B312,F312)</f>
+        <f t="shared" si="5"/>
         <v>13004_15</v>
       </c>
     </row>
@@ -30561,7 +30588,7 @@
         <v>2275</v>
       </c>
       <c r="G313" s="13" t="str">
-        <f>CONCATENATE(B313,F313)</f>
+        <f t="shared" si="5"/>
         <v>13004_15</v>
       </c>
     </row>
@@ -30585,7 +30612,7 @@
         <v>2276</v>
       </c>
       <c r="G314" s="13" t="str">
-        <f>CONCATENATE(B314,F314)</f>
+        <f t="shared" si="5"/>
         <v>13004_14</v>
       </c>
     </row>
@@ -30609,7 +30636,7 @@
         <v>2274</v>
       </c>
       <c r="G315" s="13" t="str">
-        <f>CONCATENATE(B315,F315)</f>
+        <f t="shared" si="5"/>
         <v>13004_12</v>
       </c>
     </row>
@@ -30633,7 +30660,7 @@
         <v>2274</v>
       </c>
       <c r="G316" s="13" t="str">
-        <f>CONCATENATE(B316,F316)</f>
+        <f t="shared" si="5"/>
         <v>13004_12</v>
       </c>
     </row>
@@ -30657,7 +30684,7 @@
         <v>2276</v>
       </c>
       <c r="G317" s="13" t="str">
-        <f>CONCATENATE(B317,F317)</f>
+        <f t="shared" si="5"/>
         <v>13004_14</v>
       </c>
     </row>
@@ -30681,7 +30708,7 @@
         <v>2276</v>
       </c>
       <c r="G318" s="13" t="str">
-        <f>CONCATENATE(B318,F318)</f>
+        <f t="shared" si="5"/>
         <v>13004_14</v>
       </c>
     </row>
@@ -30705,7 +30732,7 @@
         <v>2276</v>
       </c>
       <c r="G319" s="13" t="str">
-        <f>CONCATENATE(B319,F319)</f>
+        <f t="shared" si="5"/>
         <v>13004_14</v>
       </c>
     </row>
@@ -30729,7 +30756,7 @@
         <v>2276</v>
       </c>
       <c r="G320" s="13" t="str">
-        <f>CONCATENATE(B320,F320)</f>
+        <f t="shared" si="5"/>
         <v>13004_14</v>
       </c>
     </row>
@@ -30753,7 +30780,7 @@
         <v>2277</v>
       </c>
       <c r="G321" s="13" t="str">
-        <f>CONCATENATE(B321,F321)</f>
+        <f t="shared" si="5"/>
         <v>13031_9</v>
       </c>
     </row>
@@ -30777,7 +30804,7 @@
         <v>2277</v>
       </c>
       <c r="G322" s="13" t="str">
-        <f>CONCATENATE(B322,F322)</f>
+        <f t="shared" si="5"/>
         <v>13031_9</v>
       </c>
     </row>
@@ -30801,7 +30828,7 @@
         <v>2277</v>
       </c>
       <c r="G323" s="13" t="str">
-        <f>CONCATENATE(B323,F323)</f>
+        <f t="shared" si="5"/>
         <v>13031_9</v>
       </c>
     </row>
@@ -30825,7 +30852,7 @@
         <v>2277</v>
       </c>
       <c r="G324" s="13" t="str">
-        <f>CONCATENATE(B324,F324)</f>
+        <f t="shared" si="5"/>
         <v>13031_9</v>
       </c>
     </row>
@@ -30849,7 +30876,7 @@
         <v>2277</v>
       </c>
       <c r="G325" s="13" t="str">
-        <f>CONCATENATE(B325,F325)</f>
+        <f t="shared" si="5"/>
         <v>13031_9</v>
       </c>
     </row>
@@ -30873,7 +30900,7 @@
         <v>2277</v>
       </c>
       <c r="G326" s="13" t="str">
-        <f>CONCATENATE(B326,F326)</f>
+        <f t="shared" si="5"/>
         <v>13031_9</v>
       </c>
     </row>
@@ -30897,7 +30924,7 @@
         <v>2278</v>
       </c>
       <c r="G327" s="13" t="str">
-        <f>CONCATENATE(B327,F327)</f>
+        <f t="shared" si="5"/>
         <v>13031_8</v>
       </c>
     </row>
@@ -30921,7 +30948,7 @@
         <v>2278</v>
       </c>
       <c r="G328" s="13" t="str">
-        <f>CONCATENATE(B328,F328)</f>
+        <f t="shared" si="5"/>
         <v>13031_8</v>
       </c>
     </row>
@@ -30945,7 +30972,7 @@
         <v>2278</v>
       </c>
       <c r="G329" s="13" t="str">
-        <f>CONCATENATE(B329,F329)</f>
+        <f t="shared" si="5"/>
         <v>13031_8</v>
       </c>
     </row>
@@ -30969,7 +30996,7 @@
         <v>2278</v>
       </c>
       <c r="G330" s="13" t="str">
-        <f>CONCATENATE(B330,F330)</f>
+        <f t="shared" si="5"/>
         <v>13031_8</v>
       </c>
     </row>
@@ -30993,7 +31020,7 @@
         <v>2278</v>
       </c>
       <c r="G331" s="13" t="str">
-        <f>CONCATENATE(B331,F331)</f>
+        <f t="shared" si="5"/>
         <v>13031_8</v>
       </c>
     </row>
@@ -31017,7 +31044,7 @@
         <v>2279</v>
       </c>
       <c r="G332" s="13" t="str">
-        <f>CONCATENATE(B332,F332)</f>
+        <f t="shared" si="5"/>
         <v>13031_7</v>
       </c>
     </row>
@@ -31041,7 +31068,7 @@
         <v>2279</v>
       </c>
       <c r="G333" s="13" t="str">
-        <f>CONCATENATE(B333,F333)</f>
+        <f t="shared" ref="G333:G364" si="6">CONCATENATE(B333,F333)</f>
         <v>13031_7</v>
       </c>
     </row>
@@ -31065,7 +31092,7 @@
         <v>2279</v>
       </c>
       <c r="G334" s="13" t="str">
-        <f>CONCATENATE(B334,F334)</f>
+        <f t="shared" si="6"/>
         <v>13031_7</v>
       </c>
     </row>
@@ -31089,7 +31116,7 @@
         <v>2279</v>
       </c>
       <c r="G335" s="13" t="str">
-        <f>CONCATENATE(B335,F335)</f>
+        <f t="shared" si="6"/>
         <v>13031_7</v>
       </c>
     </row>
@@ -31113,7 +31140,7 @@
         <v>2279</v>
       </c>
       <c r="G336" s="13" t="str">
-        <f>CONCATENATE(B336,F336)</f>
+        <f t="shared" si="6"/>
         <v>13031_7</v>
       </c>
     </row>
@@ -31137,7 +31164,7 @@
         <v>2279</v>
       </c>
       <c r="G337" s="13" t="str">
-        <f>CONCATENATE(B337,F337)</f>
+        <f t="shared" si="6"/>
         <v>13031_7</v>
       </c>
     </row>
@@ -31161,7 +31188,7 @@
         <v>2279</v>
       </c>
       <c r="G338" s="13" t="str">
-        <f>CONCATENATE(B338,F338)</f>
+        <f t="shared" si="6"/>
         <v>13031_7</v>
       </c>
     </row>
@@ -31185,7 +31212,7 @@
         <v>2278</v>
       </c>
       <c r="G339" s="13" t="str">
-        <f>CONCATENATE(B339,F339)</f>
+        <f t="shared" si="6"/>
         <v>13031_8</v>
       </c>
     </row>
@@ -31209,7 +31236,7 @@
         <v>2280</v>
       </c>
       <c r="G340" s="13" t="str">
-        <f>CONCATENATE(B340,F340)</f>
+        <f t="shared" si="6"/>
         <v>13040_3</v>
       </c>
     </row>
@@ -31233,7 +31260,7 @@
         <v>2281</v>
       </c>
       <c r="G341" s="13" t="str">
-        <f>CONCATENATE(B341,F341)</f>
+        <f t="shared" si="6"/>
         <v>13040_6</v>
       </c>
     </row>
@@ -31257,7 +31284,7 @@
         <v>2281</v>
       </c>
       <c r="G342" s="13" t="str">
-        <f>CONCATENATE(B342,F342)</f>
+        <f t="shared" si="6"/>
         <v>13040_6</v>
       </c>
     </row>
@@ -31281,7 +31308,7 @@
         <v>2281</v>
       </c>
       <c r="G343" s="13" t="str">
-        <f>CONCATENATE(B343,F343)</f>
+        <f t="shared" si="6"/>
         <v>13040_6</v>
       </c>
     </row>
@@ -31305,7 +31332,7 @@
         <v>2280</v>
       </c>
       <c r="G344" s="13" t="str">
-        <f>CONCATENATE(B344,F344)</f>
+        <f t="shared" si="6"/>
         <v>13040_3</v>
       </c>
     </row>
@@ -31329,7 +31356,7 @@
         <v>2280</v>
       </c>
       <c r="G345" s="13" t="str">
-        <f>CONCATENATE(B345,F345)</f>
+        <f t="shared" si="6"/>
         <v>13040_3</v>
       </c>
     </row>
@@ -31353,7 +31380,7 @@
         <v>2282</v>
       </c>
       <c r="G346" s="13" t="str">
-        <f>CONCATENATE(B346,F346)</f>
+        <f t="shared" si="6"/>
         <v>13040_1</v>
       </c>
     </row>
@@ -31377,7 +31404,7 @@
         <v>2283</v>
       </c>
       <c r="G347" s="13" t="str">
-        <f>CONCATENATE(B347,F347)</f>
+        <f t="shared" si="6"/>
         <v>13040_4</v>
       </c>
     </row>
@@ -31401,7 +31428,7 @@
         <v>2283</v>
       </c>
       <c r="G348" s="13" t="str">
-        <f>CONCATENATE(B348,F348)</f>
+        <f t="shared" si="6"/>
         <v>13040_4</v>
       </c>
     </row>
@@ -31425,7 +31452,7 @@
         <v>2281</v>
       </c>
       <c r="G349" s="13" t="str">
-        <f>CONCATENATE(B349,F349)</f>
+        <f t="shared" si="6"/>
         <v>13040_6</v>
       </c>
     </row>
@@ -31449,7 +31476,7 @@
         <v>2284</v>
       </c>
       <c r="G350" s="13" t="str">
-        <f>CONCATENATE(B350,F350)</f>
+        <f t="shared" si="6"/>
         <v>13040_5</v>
       </c>
     </row>
@@ -31473,7 +31500,7 @@
         <v>2284</v>
       </c>
       <c r="G351" s="13" t="str">
-        <f>CONCATENATE(B351,F351)</f>
+        <f t="shared" si="6"/>
         <v>13040_5</v>
       </c>
     </row>
@@ -31497,7 +31524,7 @@
         <v>2284</v>
       </c>
       <c r="G352" s="13" t="str">
-        <f>CONCATENATE(B352,F352)</f>
+        <f t="shared" si="6"/>
         <v>13040_5</v>
       </c>
     </row>
@@ -31521,7 +31548,7 @@
         <v>2284</v>
       </c>
       <c r="G353" s="13" t="str">
-        <f>CONCATENATE(B353,F353)</f>
+        <f t="shared" si="6"/>
         <v>13040_5</v>
       </c>
     </row>
@@ -31545,7 +31572,7 @@
         <v>2283</v>
       </c>
       <c r="G354" s="13" t="str">
-        <f>CONCATENATE(B354,F354)</f>
+        <f t="shared" si="6"/>
         <v>13040_4</v>
       </c>
     </row>
@@ -31569,7 +31596,7 @@
         <v>2283</v>
       </c>
       <c r="G355" s="13" t="str">
-        <f>CONCATENATE(B355,F355)</f>
+        <f t="shared" si="6"/>
         <v>13040_4</v>
       </c>
     </row>
@@ -31593,7 +31620,7 @@
         <v>2284</v>
       </c>
       <c r="G356" s="13" t="str">
-        <f>CONCATENATE(B356,F356)</f>
+        <f t="shared" si="6"/>
         <v>13040_5</v>
       </c>
     </row>
@@ -31617,7 +31644,7 @@
         <v>2282</v>
       </c>
       <c r="G357" s="13" t="str">
-        <f>CONCATENATE(B357,F357)</f>
+        <f t="shared" si="6"/>
         <v>13040_1</v>
       </c>
     </row>
@@ -31641,7 +31668,7 @@
         <v>2282</v>
       </c>
       <c r="G358" s="13" t="str">
-        <f>CONCATENATE(B358,F358)</f>
+        <f t="shared" si="6"/>
         <v>13040_1</v>
       </c>
     </row>
@@ -31665,7 +31692,7 @@
         <v>2282</v>
       </c>
       <c r="G359" s="13" t="str">
-        <f>CONCATENATE(B359,F359)</f>
+        <f t="shared" si="6"/>
         <v>13040_1</v>
       </c>
     </row>
@@ -31689,7 +31716,7 @@
         <v>2281</v>
       </c>
       <c r="G360" s="13" t="str">
-        <f>CONCATENATE(B360,F360)</f>
+        <f t="shared" si="6"/>
         <v>13040_6</v>
       </c>
     </row>
@@ -31713,7 +31740,7 @@
         <v>2280</v>
       </c>
       <c r="G361" s="13" t="str">
-        <f>CONCATENATE(B361,F361)</f>
+        <f t="shared" si="6"/>
         <v>13040_3</v>
       </c>
     </row>
@@ -31737,7 +31764,7 @@
         <v>2280</v>
       </c>
       <c r="G362" s="13" t="str">
-        <f>CONCATENATE(B362,F362)</f>
+        <f t="shared" si="6"/>
         <v>13040_3</v>
       </c>
     </row>
@@ -31761,7 +31788,7 @@
         <v>2280</v>
       </c>
       <c r="G363" s="13" t="str">
-        <f>CONCATENATE(B363,F363)</f>
+        <f t="shared" si="6"/>
         <v>13040_3</v>
       </c>
     </row>
@@ -31785,7 +31812,7 @@
         <v>2285</v>
       </c>
       <c r="G364" s="13" t="str">
-        <f>CONCATENATE(B364,F364)</f>
+        <f t="shared" si="6"/>
         <v>13040_2</v>
       </c>
     </row>
@@ -31809,7 +31836,7 @@
         <v>2280</v>
       </c>
       <c r="G365" s="13" t="str">
-        <f>CONCATENATE(B365,F365)</f>
+        <f t="shared" ref="G365:G396" si="7">CONCATENATE(B365,F365)</f>
         <v>13040_3</v>
       </c>
     </row>
@@ -31833,7 +31860,7 @@
         <v>2285</v>
       </c>
       <c r="G366" s="13" t="str">
-        <f>CONCATENATE(B366,F366)</f>
+        <f t="shared" si="7"/>
         <v>13040_2</v>
       </c>
     </row>
@@ -31857,7 +31884,7 @@
         <v>2285</v>
       </c>
       <c r="G367" s="13" t="str">
-        <f>CONCATENATE(B367,F367)</f>
+        <f t="shared" si="7"/>
         <v>13040_2</v>
       </c>
     </row>
@@ -31881,7 +31908,7 @@
         <v>2285</v>
       </c>
       <c r="G368" s="13" t="str">
-        <f>CONCATENATE(B368,F368)</f>
+        <f t="shared" si="7"/>
         <v>13040_2</v>
       </c>
     </row>
@@ -31905,7 +31932,7 @@
         <v>2285</v>
       </c>
       <c r="G369" s="13" t="str">
-        <f>CONCATENATE(B369,F369)</f>
+        <f t="shared" si="7"/>
         <v>13040_2</v>
       </c>
     </row>
@@ -31929,7 +31956,7 @@
         <v>2285</v>
       </c>
       <c r="G370" s="13" t="str">
-        <f>CONCATENATE(B370,F370)</f>
+        <f t="shared" si="7"/>
         <v>13040_2</v>
       </c>
     </row>
@@ -31953,7 +31980,7 @@
         <v>2282</v>
       </c>
       <c r="G371" s="13" t="str">
-        <f>CONCATENATE(B371,F371)</f>
+        <f t="shared" si="7"/>
         <v>13040_1</v>
       </c>
     </row>
@@ -31977,7 +32004,7 @@
         <v>2282</v>
       </c>
       <c r="G372" s="13" t="str">
-        <f>CONCATENATE(B372,F372)</f>
+        <f t="shared" si="7"/>
         <v>13040_1</v>
       </c>
     </row>
@@ -32001,7 +32028,7 @@
         <v>2288</v>
       </c>
       <c r="G373" s="13" t="str">
-        <f>CONCATENATE(B373,F373)</f>
+        <f t="shared" si="7"/>
         <v>13046_11</v>
       </c>
     </row>
@@ -32025,7 +32052,7 @@
         <v>2287</v>
       </c>
       <c r="G374" s="13" t="str">
-        <f>CONCATENATE(B374,F374)</f>
+        <f t="shared" si="7"/>
         <v>13046_10</v>
       </c>
     </row>
@@ -32049,7 +32076,7 @@
         <v>2288</v>
       </c>
       <c r="G375" s="13" t="str">
-        <f>CONCATENATE(B375,F375)</f>
+        <f t="shared" si="7"/>
         <v>13046_11</v>
       </c>
     </row>
@@ -32073,7 +32100,7 @@
         <v>2288</v>
       </c>
       <c r="G376" s="13" t="str">
-        <f>CONCATENATE(B376,F376)</f>
+        <f t="shared" si="7"/>
         <v>13046_11</v>
       </c>
     </row>
@@ -32097,7 +32124,7 @@
         <v>2288</v>
       </c>
       <c r="G377" s="13" t="str">
-        <f>CONCATENATE(B377,F377)</f>
+        <f t="shared" si="7"/>
         <v>13046_11</v>
       </c>
     </row>
@@ -32121,7 +32148,7 @@
         <v>2286</v>
       </c>
       <c r="G378" s="13" t="str">
-        <f>CONCATENATE(B378,F378)</f>
+        <f t="shared" si="7"/>
         <v>13046_13</v>
       </c>
     </row>
@@ -32145,7 +32172,7 @@
         <v>2287</v>
       </c>
       <c r="G379" s="13" t="str">
-        <f>CONCATENATE(B379,F379)</f>
+        <f t="shared" si="7"/>
         <v>13046_10</v>
       </c>
     </row>
@@ -32169,7 +32196,7 @@
         <v>2288</v>
       </c>
       <c r="G380" s="13" t="str">
-        <f>CONCATENATE(B380,F380)</f>
+        <f t="shared" si="7"/>
         <v>13046_11</v>
       </c>
     </row>
@@ -32193,7 +32220,7 @@
         <v>2286</v>
       </c>
       <c r="G381" s="13" t="str">
-        <f>CONCATENATE(B381,F381)</f>
+        <f t="shared" si="7"/>
         <v>13046_13</v>
       </c>
     </row>
@@ -32217,7 +32244,7 @@
         <v>2286</v>
       </c>
       <c r="G382" s="13" t="str">
-        <f>CONCATENATE(B382,F382)</f>
+        <f t="shared" si="7"/>
         <v>13046_13</v>
       </c>
     </row>
@@ -32241,7 +32268,7 @@
         <v>2286</v>
       </c>
       <c r="G383" s="13" t="str">
-        <f>CONCATENATE(B383,F383)</f>
+        <f t="shared" si="7"/>
         <v>13046_13</v>
       </c>
     </row>
@@ -32265,7 +32292,7 @@
         <v>2286</v>
       </c>
       <c r="G384" s="13" t="str">
-        <f>CONCATENATE(B384,F384)</f>
+        <f t="shared" si="7"/>
         <v>13046_13</v>
       </c>
     </row>
@@ -32289,7 +32316,7 @@
         <v>2286</v>
       </c>
       <c r="G385" s="13" t="str">
-        <f>CONCATENATE(B385,F385)</f>
+        <f t="shared" si="7"/>
         <v>13046_13</v>
       </c>
     </row>
@@ -32313,7 +32340,7 @@
         <v>2287</v>
       </c>
       <c r="G386" s="13" t="str">
-        <f>CONCATENATE(B386,F386)</f>
+        <f t="shared" si="7"/>
         <v>13046_10</v>
       </c>
     </row>
@@ -32337,7 +32364,7 @@
         <v>764</v>
       </c>
       <c r="G387" s="13" t="str">
-        <f t="shared" ref="G387:G418" si="5">CONCATENATE(B387,F387)</f>
+        <f t="shared" ref="G387:G418" si="8">CONCATENATE(B387,F387)</f>
         <v>41002AALOCB</v>
       </c>
     </row>
@@ -32361,7 +32388,7 @@
         <v>764</v>
       </c>
       <c r="G388" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOCB</v>
       </c>
     </row>
@@ -32385,7 +32412,7 @@
         <v>764</v>
       </c>
       <c r="G389" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOCB</v>
       </c>
     </row>
@@ -32409,7 +32436,7 @@
         <v>776</v>
       </c>
       <c r="G390" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOCW</v>
       </c>
     </row>
@@ -32433,7 +32460,7 @@
         <v>780</v>
       </c>
       <c r="G391" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -32457,7 +32484,7 @@
         <v>780</v>
       </c>
       <c r="G392" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -32481,7 +32508,7 @@
         <v>780</v>
       </c>
       <c r="G393" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -32505,7 +32532,7 @@
         <v>770</v>
       </c>
       <c r="G394" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOCN</v>
       </c>
     </row>
@@ -32529,7 +32556,7 @@
         <v>780</v>
       </c>
       <c r="G395" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -32553,7 +32580,7 @@
         <v>780</v>
       </c>
       <c r="G396" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -32577,7 +32604,7 @@
         <v>794</v>
       </c>
       <c r="G397" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROC</v>
       </c>
     </row>
@@ -32601,7 +32628,7 @@
         <v>800</v>
       </c>
       <c r="G398" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -32625,7 +32652,7 @@
         <v>800</v>
       </c>
       <c r="G399" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -32649,7 +32676,7 @@
         <v>811</v>
       </c>
       <c r="G400" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32673,7 +32700,7 @@
         <v>794</v>
       </c>
       <c r="G401" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROC</v>
       </c>
     </row>
@@ -32697,7 +32724,7 @@
         <v>794</v>
       </c>
       <c r="G402" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROC</v>
       </c>
     </row>
@@ -32721,7 +32748,7 @@
         <v>800</v>
       </c>
       <c r="G403" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -32745,7 +32772,7 @@
         <v>800</v>
       </c>
       <c r="G404" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -32769,7 +32796,7 @@
         <v>811</v>
       </c>
       <c r="G405" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32793,7 +32820,7 @@
         <v>811</v>
       </c>
       <c r="G406" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32817,7 +32844,7 @@
         <v>811</v>
       </c>
       <c r="G407" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32841,7 +32868,7 @@
         <v>811</v>
       </c>
       <c r="G408" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32865,7 +32892,7 @@
         <v>811</v>
       </c>
       <c r="G409" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32889,7 +32916,7 @@
         <v>811</v>
       </c>
       <c r="G410" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32913,7 +32940,7 @@
         <v>794</v>
       </c>
       <c r="G411" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROC</v>
       </c>
     </row>
@@ -32937,7 +32964,7 @@
         <v>811</v>
       </c>
       <c r="G412" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32961,7 +32988,7 @@
         <v>811</v>
       </c>
       <c r="G413" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPZ</v>
       </c>
     </row>
@@ -32985,7 +33012,7 @@
         <v>780</v>
       </c>
       <c r="G414" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -33009,7 +33036,7 @@
         <v>780</v>
       </c>
       <c r="G415" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -33033,7 +33060,7 @@
         <v>794</v>
       </c>
       <c r="G416" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROC</v>
       </c>
     </row>
@@ -33057,7 +33084,7 @@
         <v>800</v>
       </c>
       <c r="G417" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -33081,7 +33108,7 @@
         <v>800</v>
       </c>
       <c r="G418" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -33105,7 +33132,7 @@
         <v>800</v>
       </c>
       <c r="G419" s="13" t="str">
-        <f t="shared" ref="G419:G450" si="6">CONCATENATE(B419,F419)</f>
+        <f t="shared" ref="G419:G450" si="9">CONCATENATE(B419,F419)</f>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -33129,7 +33156,7 @@
         <v>800</v>
       </c>
       <c r="G420" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -33153,7 +33180,7 @@
         <v>800</v>
       </c>
       <c r="G421" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -33177,7 +33204,7 @@
         <v>800</v>
       </c>
       <c r="G422" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AAROPN</v>
       </c>
     </row>
@@ -33201,7 +33228,7 @@
         <v>776</v>
       </c>
       <c r="G423" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOCW</v>
       </c>
     </row>
@@ -33225,7 +33252,7 @@
         <v>776</v>
       </c>
       <c r="G424" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOCW</v>
       </c>
     </row>
@@ -33249,7 +33276,7 @@
         <v>780</v>
       </c>
       <c r="G425" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -33273,7 +33300,7 @@
         <v>764</v>
       </c>
       <c r="G426" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOCB</v>
       </c>
     </row>
@@ -33297,7 +33324,7 @@
         <v>764</v>
       </c>
       <c r="G427" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOCB</v>
       </c>
     </row>
@@ -33321,7 +33348,7 @@
         <v>770</v>
       </c>
       <c r="G428" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOCN</v>
       </c>
     </row>
@@ -33345,7 +33372,7 @@
         <v>770</v>
       </c>
       <c r="G429" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOCN</v>
       </c>
     </row>
@@ -33369,7 +33396,7 @@
         <v>770</v>
       </c>
       <c r="G430" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOCN</v>
       </c>
     </row>
@@ -33393,7 +33420,7 @@
         <v>770</v>
       </c>
       <c r="G431" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOCN</v>
       </c>
     </row>
@@ -33417,7 +33444,7 @@
         <v>780</v>
       </c>
       <c r="G432" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -33441,7 +33468,7 @@
         <v>780</v>
       </c>
       <c r="G433" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -33465,7 +33492,7 @@
         <v>780</v>
       </c>
       <c r="G434" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -33489,7 +33516,7 @@
         <v>780</v>
       </c>
       <c r="G435" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -33513,7 +33540,7 @@
         <v>780</v>
       </c>
       <c r="G436" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002AALOP</v>
       </c>
     </row>
@@ -33537,7 +33564,7 @@
         <v>865</v>
       </c>
       <c r="G437" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33561,7 +33588,7 @@
         <v>865</v>
       </c>
       <c r="G438" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33585,7 +33612,7 @@
         <v>865</v>
       </c>
       <c r="G439" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33609,7 +33636,7 @@
         <v>865</v>
       </c>
       <c r="G440" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33633,7 +33660,7 @@
         <v>865</v>
       </c>
       <c r="G441" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33657,7 +33684,7 @@
         <v>865</v>
       </c>
       <c r="G442" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33681,7 +33708,7 @@
         <v>865</v>
       </c>
       <c r="G443" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33705,7 +33732,7 @@
         <v>865</v>
       </c>
       <c r="G444" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33729,7 +33756,7 @@
         <v>865</v>
       </c>
       <c r="G445" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33753,7 +33780,7 @@
         <v>865</v>
       </c>
       <c r="G446" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33777,7 +33804,7 @@
         <v>865</v>
       </c>
       <c r="G447" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33801,7 +33828,7 @@
         <v>865</v>
       </c>
       <c r="G448" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33825,7 +33852,7 @@
         <v>865</v>
       </c>
       <c r="G449" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002HO</v>
       </c>
     </row>
@@ -33849,7 +33876,7 @@
         <v>847</v>
       </c>
       <c r="G450" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41002GY</v>
       </c>
     </row>
@@ -33873,7 +33900,7 @@
         <v>847</v>
       </c>
       <c r="G451" s="13" t="str">
-        <f t="shared" ref="G451:G482" si="7">CONCATENATE(B451,F451)</f>
+        <f t="shared" ref="G451:G482" si="10">CONCATENATE(B451,F451)</f>
         <v>41002GY</v>
       </c>
     </row>
@@ -33897,7 +33924,7 @@
         <v>847</v>
       </c>
       <c r="G452" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002GY</v>
       </c>
     </row>
@@ -33921,7 +33948,7 @@
         <v>847</v>
       </c>
       <c r="G453" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002GY</v>
       </c>
     </row>
@@ -33945,7 +33972,7 @@
         <v>847</v>
       </c>
       <c r="G454" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002GY</v>
       </c>
     </row>
@@ -33969,7 +33996,7 @@
         <v>847</v>
       </c>
       <c r="G455" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002GY</v>
       </c>
     </row>
@@ -33993,7 +34020,7 @@
         <v>847</v>
       </c>
       <c r="G456" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002GY</v>
       </c>
     </row>
@@ -34017,7 +34044,7 @@
         <v>856</v>
       </c>
       <c r="G457" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002HE</v>
       </c>
     </row>
@@ -34041,7 +34068,7 @@
         <v>856</v>
       </c>
       <c r="G458" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002HE</v>
       </c>
     </row>
@@ -34065,7 +34092,7 @@
         <v>856</v>
       </c>
       <c r="G459" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002HE</v>
       </c>
     </row>
@@ -34089,7 +34116,7 @@
         <v>856</v>
       </c>
       <c r="G460" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002HE</v>
       </c>
     </row>
@@ -34113,7 +34140,7 @@
         <v>856</v>
       </c>
       <c r="G461" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002HE</v>
       </c>
     </row>
@@ -34137,7 +34164,7 @@
         <v>856</v>
       </c>
       <c r="G462" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002HE</v>
       </c>
     </row>
@@ -34161,7 +34188,7 @@
         <v>856</v>
       </c>
       <c r="G463" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002HE</v>
       </c>
     </row>
@@ -34185,7 +34212,7 @@
         <v>892</v>
       </c>
       <c r="G464" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34209,7 +34236,7 @@
         <v>892</v>
       </c>
       <c r="G465" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34233,7 +34260,7 @@
         <v>892</v>
       </c>
       <c r="G466" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34257,7 +34284,7 @@
         <v>892</v>
       </c>
       <c r="G467" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34281,7 +34308,7 @@
         <v>892</v>
       </c>
       <c r="G468" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34305,7 +34332,7 @@
         <v>892</v>
       </c>
       <c r="G469" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34329,7 +34356,7 @@
         <v>892</v>
       </c>
       <c r="G470" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34353,7 +34380,7 @@
         <v>892</v>
       </c>
       <c r="G471" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34377,7 +34404,7 @@
         <v>892</v>
       </c>
       <c r="G472" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34401,7 +34428,7 @@
         <v>892</v>
       </c>
       <c r="G473" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34425,7 +34452,7 @@
         <v>892</v>
       </c>
       <c r="G474" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34449,7 +34476,7 @@
         <v>892</v>
       </c>
       <c r="G475" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002MO</v>
       </c>
     </row>
@@ -34473,7 +34500,7 @@
         <v>821</v>
       </c>
       <c r="G476" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002BA</v>
       </c>
     </row>
@@ -34497,7 +34524,7 @@
         <v>821</v>
       </c>
       <c r="G477" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002BA</v>
       </c>
     </row>
@@ -34521,7 +34548,7 @@
         <v>821</v>
       </c>
       <c r="G478" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002BA</v>
       </c>
     </row>
@@ -34545,7 +34572,7 @@
         <v>821</v>
       </c>
       <c r="G479" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002BA</v>
       </c>
     </row>
@@ -34569,7 +34596,7 @@
         <v>821</v>
       </c>
       <c r="G480" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002BA</v>
       </c>
     </row>
@@ -34593,7 +34620,7 @@
         <v>821</v>
       </c>
       <c r="G481" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002BA</v>
       </c>
     </row>
@@ -34617,7 +34644,7 @@
         <v>880</v>
       </c>
       <c r="G482" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34641,7 +34668,7 @@
         <v>880</v>
       </c>
       <c r="G483" s="13" t="str">
-        <f t="shared" ref="G483:G514" si="8">CONCATENATE(B483,F483)</f>
+        <f t="shared" ref="G483:G514" si="11">CONCATENATE(B483,F483)</f>
         <v>41002ME</v>
       </c>
     </row>
@@ -34665,7 +34692,7 @@
         <v>880</v>
       </c>
       <c r="G484" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34689,7 +34716,7 @@
         <v>880</v>
       </c>
       <c r="G485" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34713,7 +34740,7 @@
         <v>880</v>
       </c>
       <c r="G486" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34737,7 +34764,7 @@
         <v>880</v>
       </c>
       <c r="G487" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34761,7 +34788,7 @@
         <v>880</v>
       </c>
       <c r="G488" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34785,7 +34812,7 @@
         <v>880</v>
       </c>
       <c r="G489" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34809,7 +34836,7 @@
         <v>880</v>
       </c>
       <c r="G490" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34833,7 +34860,7 @@
         <v>880</v>
       </c>
       <c r="G491" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ME</v>
       </c>
     </row>
@@ -34857,7 +34884,7 @@
         <v>829</v>
       </c>
       <c r="G492" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -34881,7 +34908,7 @@
         <v>829</v>
       </c>
       <c r="G493" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -34905,7 +34932,7 @@
         <v>829</v>
       </c>
       <c r="G494" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -34929,7 +34956,7 @@
         <v>829</v>
       </c>
       <c r="G495" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -34953,7 +34980,7 @@
         <v>829</v>
       </c>
       <c r="G496" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -34977,7 +35004,7 @@
         <v>829</v>
       </c>
       <c r="G497" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35001,7 +35028,7 @@
         <v>829</v>
       </c>
       <c r="G498" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35025,7 +35052,7 @@
         <v>829</v>
       </c>
       <c r="G499" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35049,7 +35076,7 @@
         <v>829</v>
       </c>
       <c r="G500" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35073,7 +35100,7 @@
         <v>829</v>
       </c>
       <c r="G501" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35097,7 +35124,7 @@
         <v>829</v>
       </c>
       <c r="G502" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35121,7 +35148,7 @@
         <v>829</v>
       </c>
       <c r="G503" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35145,7 +35172,7 @@
         <v>829</v>
       </c>
       <c r="G504" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35169,7 +35196,7 @@
         <v>829</v>
       </c>
       <c r="G505" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35193,7 +35220,7 @@
         <v>829</v>
       </c>
       <c r="G506" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35217,7 +35244,7 @@
         <v>829</v>
       </c>
       <c r="G507" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002ER</v>
       </c>
     </row>
@@ -35241,7 +35268,7 @@
         <v>904</v>
       </c>
       <c r="G508" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35265,7 +35292,7 @@
         <v>904</v>
       </c>
       <c r="G509" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35289,7 +35316,7 @@
         <v>904</v>
       </c>
       <c r="G510" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35313,7 +35340,7 @@
         <v>904</v>
       </c>
       <c r="G511" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35337,7 +35364,7 @@
         <v>904</v>
       </c>
       <c r="G512" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35361,7 +35388,7 @@
         <v>904</v>
       </c>
       <c r="G513" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35385,7 +35412,7 @@
         <v>904</v>
       </c>
       <c r="G514" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35409,7 +35436,7 @@
         <v>904</v>
       </c>
       <c r="G515" s="13" t="str">
-        <f t="shared" ref="G515:G518" si="9">CONCATENATE(B515,F515)</f>
+        <f t="shared" ref="G515:G518" si="12">CONCATENATE(B515,F515)</f>
         <v>41002NI</v>
       </c>
     </row>
@@ -35433,7 +35460,7 @@
         <v>904</v>
       </c>
       <c r="G516" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35457,7 +35484,7 @@
         <v>904</v>
       </c>
       <c r="G517" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35481,7 +35508,7 @@
         <v>904</v>
       </c>
       <c r="G518" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>41002NI</v>
       </c>
     </row>
@@ -35505,7 +35532,7 @@
         <v>6</v>
       </c>
       <c r="G519" s="13" t="str">
-        <f t="shared" ref="G519:G579" si="10">CONCATENATE(B519,F519)</f>
+        <f t="shared" ref="G519:G579" si="13">CONCATENATE(B519,F519)</f>
         <v>710166</v>
       </c>
     </row>
@@ -35529,7 +35556,7 @@
         <v>12</v>
       </c>
       <c r="G520" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101612</v>
       </c>
       <c r="K520" s="13"/>
@@ -35554,7 +35581,7 @@
         <v>24</v>
       </c>
       <c r="G521" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101624</v>
       </c>
       <c r="K521" s="13"/>
@@ -35579,7 +35606,7 @@
         <v>7</v>
       </c>
       <c r="G522" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710167</v>
       </c>
       <c r="K522" s="13"/>
@@ -35604,7 +35631,7 @@
         <v>3</v>
       </c>
       <c r="G523" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710163</v>
       </c>
       <c r="K523" s="13"/>
@@ -35629,7 +35656,7 @@
         <v>3</v>
       </c>
       <c r="G524" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710163</v>
       </c>
       <c r="K524" s="13"/>
@@ -35654,7 +35681,7 @@
         <v>17</v>
       </c>
       <c r="G525" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101617</v>
       </c>
       <c r="K525" s="13"/>
@@ -35679,7 +35706,7 @@
         <v>17</v>
       </c>
       <c r="G526" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101617</v>
       </c>
       <c r="K526" s="13"/>
@@ -35704,7 +35731,7 @@
         <v>13</v>
       </c>
       <c r="G527" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101613</v>
       </c>
       <c r="K527" s="13"/>
@@ -35729,7 +35756,7 @@
         <v>14</v>
       </c>
       <c r="G528" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101614</v>
       </c>
       <c r="K528" s="13"/>
@@ -35754,7 +35781,7 @@
         <v>14</v>
       </c>
       <c r="G529" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101614</v>
       </c>
       <c r="K529" s="13"/>
@@ -35779,7 +35806,7 @@
         <v>27</v>
       </c>
       <c r="G530" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101627</v>
       </c>
       <c r="K530" s="13"/>
@@ -35804,7 +35831,7 @@
         <v>23</v>
       </c>
       <c r="G531" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101623</v>
       </c>
       <c r="K531" s="13"/>
@@ -35829,7 +35856,7 @@
         <v>23</v>
       </c>
       <c r="G532" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101623</v>
       </c>
       <c r="K532" s="13"/>
@@ -35854,7 +35881,7 @@
         <v>10</v>
       </c>
       <c r="G533" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101610</v>
       </c>
       <c r="K533" s="13"/>
@@ -35879,7 +35906,7 @@
         <v>8</v>
       </c>
       <c r="G534" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710168</v>
       </c>
       <c r="K534" s="13"/>
@@ -35904,7 +35931,7 @@
         <v>28</v>
       </c>
       <c r="G535" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101628</v>
       </c>
       <c r="K535" s="13"/>
@@ -35929,7 +35956,7 @@
         <v>2</v>
       </c>
       <c r="G536" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710162</v>
       </c>
       <c r="K536" s="13"/>
@@ -35954,7 +35981,7 @@
         <v>1</v>
       </c>
       <c r="G537" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710161</v>
       </c>
       <c r="K537" s="13"/>
@@ -35979,7 +36006,7 @@
         <v>21</v>
       </c>
       <c r="G538" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101621</v>
       </c>
       <c r="K538" s="13"/>
@@ -36004,7 +36031,7 @@
         <v>2</v>
       </c>
       <c r="G539" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710162</v>
       </c>
       <c r="K539" s="13"/>
@@ -36029,7 +36056,7 @@
         <v>21</v>
       </c>
       <c r="G540" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101621</v>
       </c>
       <c r="K540" s="13"/>
@@ -36054,7 +36081,7 @@
         <v>17</v>
       </c>
       <c r="G541" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101617</v>
       </c>
       <c r="K541" s="13"/>
@@ -36079,7 +36106,7 @@
         <v>17</v>
       </c>
       <c r="G542" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101617</v>
       </c>
       <c r="K542" s="13"/>
@@ -36104,7 +36131,7 @@
         <v>11</v>
       </c>
       <c r="G543" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101611</v>
       </c>
       <c r="K543" s="13"/>
@@ -36129,7 +36156,7 @@
         <v>1</v>
       </c>
       <c r="G544" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710161</v>
       </c>
       <c r="K544" s="13"/>
@@ -36154,7 +36181,7 @@
         <v>1</v>
       </c>
       <c r="G545" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710161</v>
       </c>
       <c r="K545" s="13"/>
@@ -36179,7 +36206,7 @@
         <v>20</v>
       </c>
       <c r="G546" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101620</v>
       </c>
       <c r="K546" s="13"/>
@@ -36204,7 +36231,7 @@
         <v>20</v>
       </c>
       <c r="G547" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101620</v>
       </c>
       <c r="K547" s="13"/>
@@ -36229,7 +36256,7 @@
         <v>20</v>
       </c>
       <c r="G548" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101620</v>
       </c>
       <c r="K548" s="13"/>
@@ -36254,7 +36281,7 @@
         <v>16</v>
       </c>
       <c r="G549" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101616</v>
       </c>
       <c r="K549" s="13"/>
@@ -36279,7 +36306,7 @@
         <v>11</v>
       </c>
       <c r="G550" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101611</v>
       </c>
       <c r="K550" s="13"/>
@@ -36304,7 +36331,7 @@
         <v>20</v>
       </c>
       <c r="G551" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101620</v>
       </c>
       <c r="K551" s="13"/>
@@ -36329,7 +36356,7 @@
         <v>5</v>
       </c>
       <c r="G552" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710165</v>
       </c>
       <c r="K552" s="13"/>
@@ -36354,7 +36381,7 @@
         <v>22</v>
       </c>
       <c r="G553" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101622</v>
       </c>
       <c r="K553" s="13"/>
@@ -36379,7 +36406,7 @@
         <v>12</v>
       </c>
       <c r="G554" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101612</v>
       </c>
       <c r="K554" s="13"/>
@@ -36404,7 +36431,7 @@
         <v>11</v>
       </c>
       <c r="G555" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101611</v>
       </c>
       <c r="K555" s="13"/>
@@ -36429,7 +36456,7 @@
         <v>22</v>
       </c>
       <c r="G556" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101622</v>
       </c>
       <c r="K556" s="13"/>
@@ -36454,7 +36481,7 @@
         <v>22</v>
       </c>
       <c r="G557" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101622</v>
       </c>
       <c r="K557" s="13"/>
@@ -36479,7 +36506,7 @@
         <v>18</v>
       </c>
       <c r="G558" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101618</v>
       </c>
       <c r="K558" s="13"/>
@@ -36504,7 +36531,7 @@
         <v>22</v>
       </c>
       <c r="G559" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101622</v>
       </c>
       <c r="K559" s="13"/>
@@ -36529,7 +36556,7 @@
         <v>26</v>
       </c>
       <c r="G560" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101626</v>
       </c>
       <c r="K560" s="13"/>
@@ -36554,7 +36581,7 @@
         <v>25</v>
       </c>
       <c r="G561" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101625</v>
       </c>
       <c r="K561" s="13"/>
@@ -36579,7 +36606,7 @@
         <v>18</v>
       </c>
       <c r="G562" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101618</v>
       </c>
       <c r="K562" s="13"/>
@@ -36604,7 +36631,7 @@
         <v>29</v>
       </c>
       <c r="G563" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101629</v>
       </c>
       <c r="K563" s="13"/>
@@ -36629,7 +36656,7 @@
         <v>9</v>
       </c>
       <c r="G564" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710169</v>
       </c>
       <c r="K564" s="13"/>
@@ -36654,7 +36681,7 @@
         <v>9</v>
       </c>
       <c r="G565" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710169</v>
       </c>
       <c r="K565" s="13"/>
@@ -36679,7 +36706,7 @@
         <v>4</v>
       </c>
       <c r="G566" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>710164</v>
       </c>
       <c r="K566" s="13"/>
@@ -36704,7 +36731,7 @@
         <v>19</v>
       </c>
       <c r="G567" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101619</v>
       </c>
       <c r="K567" s="13"/>
@@ -36729,7 +36756,7 @@
         <v>10</v>
       </c>
       <c r="G568" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101610</v>
       </c>
       <c r="K568" s="13"/>
@@ -36754,7 +36781,7 @@
         <v>29</v>
       </c>
       <c r="G569" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101629</v>
       </c>
       <c r="K569" s="13"/>
@@ -36779,7 +36806,7 @@
         <v>30</v>
       </c>
       <c r="G570" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101630</v>
       </c>
       <c r="K570" s="13"/>
@@ -36804,7 +36831,7 @@
         <v>15</v>
       </c>
       <c r="G571" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7101615</v>
       </c>
       <c r="K571" s="13"/>
@@ -36829,7 +36856,7 @@
         <v>1433</v>
       </c>
       <c r="G572" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71022g</v>
       </c>
     </row>
@@ -36853,7 +36880,7 @@
         <v>1433</v>
       </c>
       <c r="G573" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71022g</v>
       </c>
     </row>
@@ -36877,7 +36904,7 @@
         <v>1433</v>
       </c>
       <c r="G574" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71022g</v>
       </c>
     </row>
@@ -36901,7 +36928,7 @@
         <v>1433</v>
       </c>
       <c r="G575" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71022g</v>
       </c>
     </row>
@@ -36925,7 +36952,7 @@
         <v>1439</v>
       </c>
       <c r="G576" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71022f</v>
       </c>
     </row>
@@ -36949,7 +36976,7 @@
         <v>1439</v>
       </c>
       <c r="G577" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71022f</v>
       </c>
     </row>
@@ -36973,7 +37000,7 @@
         <v>1439</v>
       </c>
       <c r="G578" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71022f</v>
       </c>
     </row>
@@ -36997,7 +37024,7 @@
         <v>1439</v>
       </c>
       <c r="G579" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71022f</v>
       </c>
     </row>
@@ -37021,7 +37048,7 @@
         <v>1439</v>
       </c>
       <c r="G580" s="13" t="str">
-        <f t="shared" ref="G580:G643" si="11">CONCATENATE(B580,F580)</f>
+        <f t="shared" ref="G580:G643" si="14">CONCATENATE(B580,F580)</f>
         <v>71022f</v>
       </c>
     </row>
@@ -37045,7 +37072,7 @@
         <v>1439</v>
       </c>
       <c r="G581" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022f</v>
       </c>
     </row>
@@ -37069,7 +37096,7 @@
         <v>1439</v>
       </c>
       <c r="G582" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022f</v>
       </c>
     </row>
@@ -37093,7 +37120,7 @@
         <v>1448</v>
       </c>
       <c r="G583" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022e</v>
       </c>
     </row>
@@ -37117,7 +37144,7 @@
         <v>1448</v>
       </c>
       <c r="G584" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022e</v>
       </c>
     </row>
@@ -37141,7 +37168,7 @@
         <v>1448</v>
       </c>
       <c r="G585" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022e</v>
       </c>
     </row>
@@ -37165,7 +37192,7 @@
         <v>1448</v>
       </c>
       <c r="G586" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022e</v>
       </c>
     </row>
@@ -37189,7 +37216,7 @@
         <v>1448</v>
       </c>
       <c r="G587" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022e</v>
       </c>
     </row>
@@ -37213,7 +37240,7 @@
         <v>1455</v>
       </c>
       <c r="G588" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022h</v>
       </c>
     </row>
@@ -37237,7 +37264,7 @@
         <v>1455</v>
       </c>
       <c r="G589" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022h</v>
       </c>
     </row>
@@ -37261,7 +37288,7 @@
         <v>1455</v>
       </c>
       <c r="G590" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022h</v>
       </c>
     </row>
@@ -37285,7 +37312,7 @@
         <v>1455</v>
       </c>
       <c r="G591" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022h</v>
       </c>
     </row>
@@ -37309,7 +37336,7 @@
         <v>1455</v>
       </c>
       <c r="G592" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022h</v>
       </c>
     </row>
@@ -37333,7 +37360,7 @@
         <v>1455</v>
       </c>
       <c r="G593" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022h</v>
       </c>
     </row>
@@ -37357,7 +37384,7 @@
         <v>1455</v>
       </c>
       <c r="G594" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022h</v>
       </c>
     </row>
@@ -37381,7 +37408,7 @@
         <v>1464</v>
       </c>
       <c r="G595" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d4</v>
       </c>
     </row>
@@ -37405,7 +37432,7 @@
         <v>1464</v>
       </c>
       <c r="G596" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d4</v>
       </c>
     </row>
@@ -37429,7 +37456,7 @@
         <v>1464</v>
       </c>
       <c r="G597" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d4</v>
       </c>
     </row>
@@ -37453,7 +37480,7 @@
         <v>1464</v>
       </c>
       <c r="G598" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d4</v>
       </c>
     </row>
@@ -37477,7 +37504,7 @@
         <v>1470</v>
       </c>
       <c r="G599" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d1</v>
       </c>
     </row>
@@ -37501,7 +37528,7 @@
         <v>1470</v>
       </c>
       <c r="G600" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d1</v>
       </c>
     </row>
@@ -37525,7 +37552,7 @@
         <v>1470</v>
       </c>
       <c r="G601" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d1</v>
       </c>
     </row>
@@ -37549,7 +37576,7 @@
         <v>1470</v>
       </c>
       <c r="G602" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d1</v>
       </c>
     </row>
@@ -37573,7 +37600,7 @@
         <v>1476</v>
       </c>
       <c r="G603" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d2</v>
       </c>
     </row>
@@ -37597,7 +37624,7 @@
         <v>1476</v>
       </c>
       <c r="G604" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d2</v>
       </c>
     </row>
@@ -37621,7 +37648,7 @@
         <v>1480</v>
       </c>
       <c r="G605" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d3</v>
       </c>
     </row>
@@ -37645,7 +37672,7 @@
         <v>1480</v>
       </c>
       <c r="G606" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022d3</v>
       </c>
     </row>
@@ -37669,7 +37696,7 @@
         <v>1484</v>
       </c>
       <c r="G607" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022c</v>
       </c>
     </row>
@@ -37693,7 +37720,7 @@
         <v>1484</v>
       </c>
       <c r="G608" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022c</v>
       </c>
     </row>
@@ -37717,7 +37744,7 @@
         <v>1484</v>
       </c>
       <c r="G609" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022c</v>
       </c>
     </row>
@@ -37741,7 +37768,7 @@
         <v>1484</v>
       </c>
       <c r="G610" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022c</v>
       </c>
     </row>
@@ -37765,7 +37792,7 @@
         <v>1484</v>
       </c>
       <c r="G611" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022c</v>
       </c>
     </row>
@@ -37789,7 +37816,7 @@
         <v>1484</v>
       </c>
       <c r="G612" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022c</v>
       </c>
     </row>
@@ -37813,7 +37840,7 @@
         <v>1492</v>
       </c>
       <c r="G613" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022b</v>
       </c>
     </row>
@@ -37837,7 +37864,7 @@
         <v>1492</v>
       </c>
       <c r="G614" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022b</v>
       </c>
     </row>
@@ -37861,7 +37888,7 @@
         <v>1496</v>
       </c>
       <c r="G615" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a5</v>
       </c>
     </row>
@@ -37885,7 +37912,7 @@
         <v>1496</v>
       </c>
       <c r="G616" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a5</v>
       </c>
     </row>
@@ -37909,7 +37936,7 @@
         <v>1496</v>
       </c>
       <c r="G617" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a5</v>
       </c>
     </row>
@@ -37933,7 +37960,7 @@
         <v>1501</v>
       </c>
       <c r="G618" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a4</v>
       </c>
     </row>
@@ -37957,7 +37984,7 @@
         <v>1501</v>
       </c>
       <c r="G619" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a4</v>
       </c>
     </row>
@@ -37981,7 +38008,7 @@
         <v>1501</v>
       </c>
       <c r="G620" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a4</v>
       </c>
     </row>
@@ -38005,7 +38032,7 @@
         <v>1501</v>
       </c>
       <c r="G621" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a4</v>
       </c>
     </row>
@@ -38029,7 +38056,7 @@
         <v>1507</v>
       </c>
       <c r="G622" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a11</v>
       </c>
     </row>
@@ -38053,7 +38080,7 @@
         <v>1507</v>
       </c>
       <c r="G623" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a11</v>
       </c>
     </row>
@@ -38077,7 +38104,7 @@
         <v>1507</v>
       </c>
       <c r="G624" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a11</v>
       </c>
     </row>
@@ -38101,7 +38128,7 @@
         <v>1507</v>
       </c>
       <c r="G625" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a11</v>
       </c>
     </row>
@@ -38125,7 +38152,7 @@
         <v>1507</v>
       </c>
       <c r="G626" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a11</v>
       </c>
     </row>
@@ -38149,7 +38176,7 @@
         <v>1507</v>
       </c>
       <c r="G627" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a11</v>
       </c>
     </row>
@@ -38173,7 +38200,7 @@
         <v>1515</v>
       </c>
       <c r="G628" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a7</v>
       </c>
     </row>
@@ -38197,7 +38224,7 @@
         <v>1515</v>
       </c>
       <c r="G629" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a7</v>
       </c>
     </row>
@@ -38221,7 +38248,7 @@
         <v>1515</v>
       </c>
       <c r="G630" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a7</v>
       </c>
     </row>
@@ -38245,7 +38272,7 @@
         <v>1515</v>
       </c>
       <c r="G631" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a7</v>
       </c>
     </row>
@@ -38269,7 +38296,7 @@
         <v>1521</v>
       </c>
       <c r="G632" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a9</v>
       </c>
     </row>
@@ -38293,7 +38320,7 @@
         <v>1521</v>
       </c>
       <c r="G633" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a9</v>
       </c>
     </row>
@@ -38317,7 +38344,7 @@
         <v>1521</v>
       </c>
       <c r="G634" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a9</v>
       </c>
     </row>
@@ -38341,7 +38368,7 @@
         <v>1526</v>
       </c>
       <c r="G635" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a8</v>
       </c>
     </row>
@@ -38365,7 +38392,7 @@
         <v>1526</v>
       </c>
       <c r="G636" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a8</v>
       </c>
     </row>
@@ -38389,7 +38416,7 @@
         <v>1530</v>
       </c>
       <c r="G637" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a3</v>
       </c>
     </row>
@@ -38413,7 +38440,7 @@
         <v>1530</v>
       </c>
       <c r="G638" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a3</v>
       </c>
     </row>
@@ -38437,7 +38464,7 @@
         <v>1530</v>
       </c>
       <c r="G639" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a3</v>
       </c>
     </row>
@@ -38461,7 +38488,7 @@
         <v>1535</v>
       </c>
       <c r="G640" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a10</v>
       </c>
     </row>
@@ -38485,7 +38512,7 @@
         <v>1535</v>
       </c>
       <c r="G641" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a10</v>
       </c>
     </row>
@@ -38509,7 +38536,7 @@
         <v>1535</v>
       </c>
       <c r="G642" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a10</v>
       </c>
     </row>
@@ -38533,7 +38560,7 @@
         <v>1535</v>
       </c>
       <c r="G643" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71022a10</v>
       </c>
     </row>
@@ -38557,7 +38584,7 @@
         <v>1535</v>
       </c>
       <c r="G644" s="13" t="str">
-        <f t="shared" ref="G644:G707" si="12">CONCATENATE(B644,F644)</f>
+        <f t="shared" ref="G644:G707" si="15">CONCATENATE(B644,F644)</f>
         <v>71022a10</v>
       </c>
     </row>
@@ -38581,7 +38608,7 @@
         <v>1542</v>
       </c>
       <c r="G645" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a6</v>
       </c>
     </row>
@@ -38605,7 +38632,7 @@
         <v>1542</v>
       </c>
       <c r="G646" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a6</v>
       </c>
     </row>
@@ -38629,7 +38656,7 @@
         <v>1542</v>
       </c>
       <c r="G647" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a6</v>
       </c>
     </row>
@@ -38653,7 +38680,7 @@
         <v>1542</v>
       </c>
       <c r="G648" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a6</v>
       </c>
     </row>
@@ -38677,7 +38704,7 @@
         <v>1548</v>
       </c>
       <c r="G649" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a0</v>
       </c>
     </row>
@@ -38701,7 +38728,7 @@
         <v>1548</v>
       </c>
       <c r="G650" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a0</v>
       </c>
     </row>
@@ -38725,7 +38752,7 @@
         <v>1552</v>
       </c>
       <c r="G651" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a2</v>
       </c>
     </row>
@@ -38749,7 +38776,7 @@
         <v>1552</v>
       </c>
       <c r="G652" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a2</v>
       </c>
     </row>
@@ -38773,7 +38800,7 @@
         <v>1552</v>
       </c>
       <c r="G653" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a2</v>
       </c>
     </row>
@@ -38797,7 +38824,7 @@
         <v>1557</v>
       </c>
       <c r="G654" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a1</v>
       </c>
     </row>
@@ -38821,7 +38848,7 @@
         <v>1557</v>
       </c>
       <c r="G655" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a1</v>
       </c>
     </row>
@@ -38845,7 +38872,7 @@
         <v>1557</v>
       </c>
       <c r="G656" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a1</v>
       </c>
     </row>
@@ -38869,7 +38896,7 @@
         <v>1557</v>
       </c>
       <c r="G657" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a1</v>
       </c>
     </row>
@@ -38893,7 +38920,7 @@
         <v>1557</v>
       </c>
       <c r="G658" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022a1</v>
       </c>
     </row>
@@ -38917,7 +38944,7 @@
         <v>1563</v>
       </c>
       <c r="G659" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>71022z</v>
       </c>
     </row>
@@ -38941,7 +38968,7 @@
         <v>2035</v>
       </c>
       <c r="G660" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H660" s="13"/>
@@ -38966,7 +38993,7 @@
         <v>2035</v>
       </c>
       <c r="G661" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H661" s="13"/>
@@ -38992,7 +39019,7 @@
         <v>2035</v>
       </c>
       <c r="G662" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H662" s="13"/>
@@ -39018,7 +39045,7 @@
         <v>2035</v>
       </c>
       <c r="G663" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H663" s="13"/>
@@ -39044,7 +39071,7 @@
         <v>2035</v>
       </c>
       <c r="G664" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H664" s="13"/>
@@ -39070,7 +39097,7 @@
         <v>2035</v>
       </c>
       <c r="G665" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H665" s="13"/>
@@ -39096,7 +39123,7 @@
         <v>2035</v>
       </c>
       <c r="G666" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H666" s="13"/>
@@ -39122,7 +39149,7 @@
         <v>2035</v>
       </c>
       <c r="G667" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H667" s="13"/>
@@ -39148,7 +39175,7 @@
         <v>2035</v>
       </c>
       <c r="G668" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H668" s="13"/>
@@ -39174,7 +39201,7 @@
         <v>2035</v>
       </c>
       <c r="G669" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H669" s="13"/>
@@ -39200,7 +39227,7 @@
         <v>2035</v>
       </c>
       <c r="G670" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202501</v>
       </c>
       <c r="H670" s="13"/>
@@ -39226,7 +39253,7 @@
         <v>2036</v>
       </c>
       <c r="G671" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202505</v>
       </c>
       <c r="H671" s="13"/>
@@ -39252,7 +39279,7 @@
         <v>2038</v>
       </c>
       <c r="G672" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H672" s="13"/>
@@ -39278,7 +39305,7 @@
         <v>1854</v>
       </c>
       <c r="G673" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H673" s="13"/>
@@ -39304,7 +39331,7 @@
         <v>1854</v>
       </c>
       <c r="G674" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H674" s="13"/>
@@ -39330,7 +39357,7 @@
         <v>1854</v>
       </c>
       <c r="G675" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H675" s="13"/>
@@ -39356,7 +39383,7 @@
         <v>1854</v>
       </c>
       <c r="G676" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H676" s="13"/>
@@ -39382,7 +39409,7 @@
         <v>1854</v>
       </c>
       <c r="G677" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H677" s="13"/>
@@ -39408,7 +39435,7 @@
         <v>1854</v>
       </c>
       <c r="G678" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H678" s="13"/>
@@ -39434,7 +39461,7 @@
         <v>1854</v>
       </c>
       <c r="G679" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H679" s="13"/>
@@ -39460,7 +39487,7 @@
         <v>1875</v>
       </c>
       <c r="G680" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202511</v>
       </c>
       <c r="H680" s="13"/>
@@ -39486,7 +39513,7 @@
         <v>1875</v>
       </c>
       <c r="G681" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202511</v>
       </c>
       <c r="H681" s="13"/>
@@ -39512,7 +39539,7 @@
         <v>1875</v>
       </c>
       <c r="G682" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202511</v>
       </c>
       <c r="H682" s="13"/>
@@ -39538,7 +39565,7 @@
         <v>1875</v>
       </c>
       <c r="G683" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202511</v>
       </c>
       <c r="H683" s="13"/>
@@ -39564,7 +39591,7 @@
         <v>1875</v>
       </c>
       <c r="G684" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202511</v>
       </c>
       <c r="H684" s="13"/>
@@ -39590,7 +39617,7 @@
         <v>1875</v>
       </c>
       <c r="G685" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202511</v>
       </c>
       <c r="H685" s="13"/>
@@ -39616,7 +39643,7 @@
         <v>2038</v>
       </c>
       <c r="G686" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H686" s="13"/>
@@ -39642,7 +39669,7 @@
         <v>2038</v>
       </c>
       <c r="G687" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H687" s="13"/>
@@ -39668,7 +39695,7 @@
         <v>2038</v>
       </c>
       <c r="G688" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H688" s="13"/>
@@ -39694,7 +39721,7 @@
         <v>2038</v>
       </c>
       <c r="G689" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H689" s="13"/>
@@ -39720,7 +39747,7 @@
         <v>2038</v>
       </c>
       <c r="G690" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H690" s="13"/>
@@ -39746,7 +39773,7 @@
         <v>2038</v>
       </c>
       <c r="G691" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H691" s="13"/>
@@ -39772,7 +39799,7 @@
         <v>2038</v>
       </c>
       <c r="G692" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H692" s="13"/>
@@ -39798,7 +39825,7 @@
         <v>2038</v>
       </c>
       <c r="G693" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H693" s="13"/>
@@ -39824,7 +39851,7 @@
         <v>2038</v>
       </c>
       <c r="G694" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H694" s="13"/>
@@ -39850,7 +39877,7 @@
         <v>2038</v>
       </c>
       <c r="G695" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202504</v>
       </c>
       <c r="H695" s="13"/>
@@ -39876,7 +39903,7 @@
         <v>2040</v>
       </c>
       <c r="G696" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202503</v>
       </c>
       <c r="H696" s="13"/>
@@ -39902,7 +39929,7 @@
         <v>2040</v>
       </c>
       <c r="G697" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202503</v>
       </c>
       <c r="H697" s="13"/>
@@ -39928,7 +39955,7 @@
         <v>2040</v>
       </c>
       <c r="G698" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202503</v>
       </c>
       <c r="H698" s="13"/>
@@ -39954,7 +39981,7 @@
         <v>2040</v>
       </c>
       <c r="G699" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202503</v>
       </c>
       <c r="H699" s="13"/>
@@ -39980,7 +40007,7 @@
         <v>2040</v>
       </c>
       <c r="G700" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202503</v>
       </c>
       <c r="H700" s="13"/>
@@ -40006,7 +40033,7 @@
         <v>2040</v>
       </c>
       <c r="G701" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202503</v>
       </c>
       <c r="H701" s="13"/>
@@ -40032,7 +40059,7 @@
         <v>1854</v>
       </c>
       <c r="G702" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H702" s="13"/>
@@ -40058,7 +40085,7 @@
         <v>1854</v>
       </c>
       <c r="G703" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H703" s="13"/>
@@ -40084,7 +40111,7 @@
         <v>1854</v>
       </c>
       <c r="G704" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H704" s="13"/>
@@ -40110,7 +40137,7 @@
         <v>1854</v>
       </c>
       <c r="G705" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H705" s="13"/>
@@ -40136,7 +40163,7 @@
         <v>1854</v>
       </c>
       <c r="G706" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H706" s="13"/>
@@ -40162,7 +40189,7 @@
         <v>1854</v>
       </c>
       <c r="G707" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1202510</v>
       </c>
       <c r="H707" s="13"/>
@@ -40188,7 +40215,7 @@
         <v>1854</v>
       </c>
       <c r="G708" s="13" t="str">
-        <f t="shared" ref="G708:G771" si="13">CONCATENATE(B708,F708)</f>
+        <f t="shared" ref="G708:G757" si="16">CONCATENATE(B708,F708)</f>
         <v>1202510</v>
       </c>
       <c r="H708" s="13"/>
@@ -40214,7 +40241,7 @@
         <v>1854</v>
       </c>
       <c r="G709" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202510</v>
       </c>
       <c r="H709" s="13"/>
@@ -40240,7 +40267,7 @@
         <v>1854</v>
       </c>
       <c r="G710" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202510</v>
       </c>
       <c r="H710" s="13"/>
@@ -40266,7 +40293,7 @@
         <v>1882</v>
       </c>
       <c r="G711" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202512</v>
       </c>
       <c r="H711" s="13"/>
@@ -40292,7 +40319,7 @@
         <v>1882</v>
       </c>
       <c r="G712" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202512</v>
       </c>
       <c r="H712" s="13"/>
@@ -40318,7 +40345,7 @@
         <v>2041</v>
       </c>
       <c r="G713" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H713" s="13"/>
@@ -40344,7 +40371,7 @@
         <v>2036</v>
       </c>
       <c r="G714" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202505</v>
       </c>
       <c r="H714" s="13"/>
@@ -40370,7 +40397,7 @@
         <v>2036</v>
       </c>
       <c r="G715" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202505</v>
       </c>
       <c r="H715" s="13"/>
@@ -40396,7 +40423,7 @@
         <v>2036</v>
       </c>
       <c r="G716" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202505</v>
       </c>
       <c r="H716" s="13"/>
@@ -40422,7 +40449,7 @@
         <v>2036</v>
       </c>
       <c r="G717" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202505</v>
       </c>
       <c r="H717" s="13"/>
@@ -40448,7 +40475,7 @@
         <v>2036</v>
       </c>
       <c r="G718" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202505</v>
       </c>
       <c r="H718" s="13"/>
@@ -40474,7 +40501,7 @@
         <v>2036</v>
       </c>
       <c r="G719" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202505</v>
       </c>
       <c r="H719" s="13"/>
@@ -40500,7 +40527,7 @@
         <v>2036</v>
       </c>
       <c r="G720" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202505</v>
       </c>
       <c r="H720" s="13"/>
@@ -40526,7 +40553,7 @@
         <v>2035</v>
       </c>
       <c r="G721" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202501</v>
       </c>
       <c r="H721" s="13"/>
@@ -40552,7 +40579,7 @@
         <v>2035</v>
       </c>
       <c r="G722" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202501</v>
       </c>
       <c r="H722" s="13"/>
@@ -40578,7 +40605,7 @@
         <v>2035</v>
       </c>
       <c r="G723" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202501</v>
       </c>
       <c r="H723" s="13"/>
@@ -40604,7 +40631,7 @@
         <v>2035</v>
       </c>
       <c r="G724" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202501</v>
       </c>
       <c r="H724" s="13"/>
@@ -40630,7 +40657,7 @@
         <v>2035</v>
       </c>
       <c r="G725" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202501</v>
       </c>
       <c r="H725" s="13"/>
@@ -40656,7 +40683,7 @@
         <v>2042</v>
       </c>
       <c r="G726" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202506</v>
       </c>
       <c r="H726" s="13"/>
@@ -40682,7 +40709,7 @@
         <v>2042</v>
       </c>
       <c r="G727" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202506</v>
       </c>
       <c r="H727" s="13"/>
@@ -40708,7 +40735,7 @@
         <v>2042</v>
       </c>
       <c r="G728" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202506</v>
       </c>
       <c r="H728" s="13"/>
@@ -40734,7 +40761,7 @@
         <v>2042</v>
       </c>
       <c r="G729" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202506</v>
       </c>
       <c r="H729" s="13"/>
@@ -40760,7 +40787,7 @@
         <v>2042</v>
       </c>
       <c r="G730" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202506</v>
       </c>
       <c r="H730" s="13"/>
@@ -40786,7 +40813,7 @@
         <v>2042</v>
       </c>
       <c r="G731" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202506</v>
       </c>
       <c r="H731" s="13"/>
@@ -40812,7 +40839,7 @@
         <v>2042</v>
       </c>
       <c r="G732" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202506</v>
       </c>
       <c r="H732" s="13"/>
@@ -40838,7 +40865,7 @@
         <v>2043</v>
       </c>
       <c r="G733" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202507</v>
       </c>
       <c r="H733" s="13"/>
@@ -40864,7 +40891,7 @@
         <v>2043</v>
       </c>
       <c r="G734" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202507</v>
       </c>
       <c r="H734" s="13"/>
@@ -40890,7 +40917,7 @@
         <v>2043</v>
       </c>
       <c r="G735" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202507</v>
       </c>
       <c r="H735" s="13"/>
@@ -40916,7 +40943,7 @@
         <v>2043</v>
       </c>
       <c r="G736" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202507</v>
       </c>
       <c r="H736" s="13"/>
@@ -40942,7 +40969,7 @@
         <v>2044</v>
       </c>
       <c r="G737" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202508</v>
       </c>
       <c r="H737" s="13"/>
@@ -40968,7 +40995,7 @@
         <v>2044</v>
       </c>
       <c r="G738" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202508</v>
       </c>
       <c r="H738" s="13"/>
@@ -40994,7 +41021,7 @@
         <v>2044</v>
       </c>
       <c r="G739" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202508</v>
       </c>
       <c r="H739" s="13"/>
@@ -41020,7 +41047,7 @@
         <v>2045</v>
       </c>
       <c r="G740" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202509</v>
       </c>
       <c r="H740" s="13"/>
@@ -41046,7 +41073,7 @@
         <v>2045</v>
       </c>
       <c r="G741" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202509</v>
       </c>
       <c r="H741" s="13"/>
@@ -41072,7 +41099,7 @@
         <v>2045</v>
       </c>
       <c r="G742" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202509</v>
       </c>
       <c r="H742" s="13"/>
@@ -41098,7 +41125,7 @@
         <v>2045</v>
       </c>
       <c r="G743" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202509</v>
       </c>
       <c r="H743" s="13"/>
@@ -41124,7 +41151,7 @@
         <v>2041</v>
       </c>
       <c r="G744" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H744" s="13"/>
@@ -41150,7 +41177,7 @@
         <v>2041</v>
       </c>
       <c r="G745" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H745" s="13"/>
@@ -41176,7 +41203,7 @@
         <v>2041</v>
       </c>
       <c r="G746" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H746" s="13"/>
@@ -41202,7 +41229,7 @@
         <v>2041</v>
       </c>
       <c r="G747" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H747" s="13"/>
@@ -41228,7 +41255,7 @@
         <v>2041</v>
       </c>
       <c r="G748" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H748" s="13"/>
@@ -41254,7 +41281,7 @@
         <v>2041</v>
       </c>
       <c r="G749" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H749" s="13"/>
@@ -41280,7 +41307,7 @@
         <v>2041</v>
       </c>
       <c r="G750" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H750" s="13"/>
@@ -41306,7 +41333,7 @@
         <v>2041</v>
       </c>
       <c r="G751" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H751" s="13"/>
@@ -41332,7 +41359,7 @@
         <v>2041</v>
       </c>
       <c r="G752" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H752" s="13"/>
@@ -41358,7 +41385,7 @@
         <v>2041</v>
       </c>
       <c r="G753" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H753" s="13"/>
@@ -41384,7 +41411,7 @@
         <v>2041</v>
       </c>
       <c r="G754" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H754" s="13"/>
@@ -41410,7 +41437,7 @@
         <v>2041</v>
       </c>
       <c r="G755" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H755" s="13"/>
@@ -41436,7 +41463,7 @@
         <v>2041</v>
       </c>
       <c r="G756" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202502</v>
       </c>
       <c r="H756" s="13"/>
@@ -41462,7 +41489,7 @@
         <v>2047</v>
       </c>
       <c r="G757" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1202599</v>
       </c>
       <c r="H757" s="13"/>
@@ -41488,7 +41515,7 @@
         <v>2863</v>
       </c>
       <c r="G758" s="13" t="str">
-        <f>CONCATENATE(B758,F758)</f>
+        <f t="shared" ref="G758:G783" si="17">CONCATENATE(B758,F758)</f>
         <v>12035_01</v>
       </c>
     </row>
@@ -41512,7 +41539,7 @@
         <v>2863</v>
       </c>
       <c r="G759" s="13" t="str">
-        <f>CONCATENATE(B759,F759)</f>
+        <f t="shared" si="17"/>
         <v>12035_01</v>
       </c>
     </row>
@@ -41536,7 +41563,7 @@
         <v>2863</v>
       </c>
       <c r="G760" s="13" t="str">
-        <f>CONCATENATE(B760,F760)</f>
+        <f t="shared" si="17"/>
         <v>12035_01</v>
       </c>
     </row>
@@ -41560,7 +41587,7 @@
         <v>2863</v>
       </c>
       <c r="G761" s="13" t="str">
-        <f>CONCATENATE(B761,F761)</f>
+        <f t="shared" si="17"/>
         <v>12035_01</v>
       </c>
     </row>
@@ -41584,7 +41611,7 @@
         <v>2863</v>
       </c>
       <c r="G762" s="13" t="str">
-        <f>CONCATENATE(B762,F762)</f>
+        <f t="shared" si="17"/>
         <v>12035_01</v>
       </c>
     </row>
@@ -41608,7 +41635,7 @@
         <v>2863</v>
       </c>
       <c r="G763" s="13" t="str">
-        <f>CONCATENATE(B763,F763)</f>
+        <f t="shared" si="17"/>
         <v>12035_01</v>
       </c>
     </row>
@@ -41632,7 +41659,7 @@
         <v>2863</v>
       </c>
       <c r="G764" s="13" t="str">
-        <f>CONCATENATE(B764,F764)</f>
+        <f t="shared" si="17"/>
         <v>12035_01</v>
       </c>
     </row>
@@ -41656,7 +41683,7 @@
         <v>2863</v>
       </c>
       <c r="G765" s="13" t="str">
-        <f>CONCATENATE(B765,F765)</f>
+        <f t="shared" si="17"/>
         <v>12035_01</v>
       </c>
     </row>
@@ -41680,7 +41707,7 @@
         <v>2864</v>
       </c>
       <c r="G766" s="13" t="str">
-        <f>CONCATENATE(B766,F766)</f>
+        <f t="shared" si="17"/>
         <v>12035_02</v>
       </c>
     </row>
@@ -41704,7 +41731,7 @@
         <v>2864</v>
       </c>
       <c r="G767" s="13" t="str">
-        <f>CONCATENATE(B767,F767)</f>
+        <f t="shared" si="17"/>
         <v>12035_02</v>
       </c>
     </row>
@@ -41728,7 +41755,7 @@
         <v>2864</v>
       </c>
       <c r="G768" s="13" t="str">
-        <f>CONCATENATE(B768,F768)</f>
+        <f t="shared" si="17"/>
         <v>12035_02</v>
       </c>
     </row>
@@ -41752,7 +41779,7 @@
         <v>2864</v>
       </c>
       <c r="G769" s="13" t="str">
-        <f>CONCATENATE(B769,F769)</f>
+        <f t="shared" si="17"/>
         <v>12035_02</v>
       </c>
     </row>
@@ -41776,7 +41803,7 @@
         <v>2864</v>
       </c>
       <c r="G770" s="13" t="str">
-        <f>CONCATENATE(B770,F770)</f>
+        <f t="shared" si="17"/>
         <v>12035_02</v>
       </c>
     </row>
@@ -41800,7 +41827,7 @@
         <v>2864</v>
       </c>
       <c r="G771" s="13" t="str">
-        <f>CONCATENATE(B771,F771)</f>
+        <f t="shared" si="17"/>
         <v>12035_02</v>
       </c>
     </row>
@@ -41824,7 +41851,7 @@
         <v>2864</v>
       </c>
       <c r="G772" s="13" t="str">
-        <f>CONCATENATE(B772,F772)</f>
+        <f t="shared" si="17"/>
         <v>12035_02</v>
       </c>
     </row>
@@ -41848,7 +41875,7 @@
         <v>2865</v>
       </c>
       <c r="G773" s="13" t="str">
-        <f>CONCATENATE(B773,F773)</f>
+        <f t="shared" si="17"/>
         <v>12035_03</v>
       </c>
     </row>
@@ -41872,7 +41899,7 @@
         <v>2865</v>
       </c>
       <c r="G774" s="13" t="str">
-        <f>CONCATENATE(B774,F774)</f>
+        <f t="shared" si="17"/>
         <v>12035_03</v>
       </c>
     </row>
@@ -41896,7 +41923,7 @@
         <v>2865</v>
       </c>
       <c r="G775" s="13" t="str">
-        <f>CONCATENATE(B775,F775)</f>
+        <f t="shared" si="17"/>
         <v>12035_03</v>
       </c>
     </row>
@@ -41920,7 +41947,7 @@
         <v>2866</v>
       </c>
       <c r="G776" s="13" t="str">
-        <f>CONCATENATE(B776,F776)</f>
+        <f t="shared" si="17"/>
         <v>12035_04</v>
       </c>
     </row>
@@ -41944,7 +41971,7 @@
         <v>2866</v>
       </c>
       <c r="G777" s="13" t="str">
-        <f>CONCATENATE(B777,F777)</f>
+        <f t="shared" si="17"/>
         <v>12035_04</v>
       </c>
     </row>
@@ -41968,7 +41995,7 @@
         <v>2866</v>
       </c>
       <c r="G778" s="13" t="str">
-        <f>CONCATENATE(B778,F778)</f>
+        <f t="shared" si="17"/>
         <v>12035_04</v>
       </c>
     </row>
@@ -41992,7 +42019,7 @@
         <v>2866</v>
       </c>
       <c r="G779" s="13" t="str">
-        <f>CONCATENATE(B779,F779)</f>
+        <f t="shared" si="17"/>
         <v>12035_04</v>
       </c>
     </row>
@@ -42016,7 +42043,7 @@
         <v>2866</v>
       </c>
       <c r="G780" s="13" t="str">
-        <f>CONCATENATE(B780,F780)</f>
+        <f t="shared" si="17"/>
         <v>12035_04</v>
       </c>
     </row>
@@ -42040,7 +42067,7 @@
         <v>2866</v>
       </c>
       <c r="G781" s="13" t="str">
-        <f>CONCATENATE(B781,F781)</f>
+        <f t="shared" si="17"/>
         <v>12035_04</v>
       </c>
     </row>
@@ -42064,7 +42091,7 @@
         <v>2866</v>
       </c>
       <c r="G782" s="13" t="str">
-        <f>CONCATENATE(B782,F782)</f>
+        <f t="shared" si="17"/>
         <v>12035_04</v>
       </c>
     </row>
@@ -42088,7 +42115,7 @@
         <v>2867</v>
       </c>
       <c r="G783" s="13" t="str">
-        <f>CONCATENATE(B783,F783)</f>
+        <f t="shared" si="17"/>
         <v>12035ZZZZ</v>
       </c>
     </row>
@@ -44711,7 +44738,7 @@
         <v>1849</v>
       </c>
       <c r="G897" s="13" t="str">
-        <f t="shared" ref="G897:G960" si="14">CONCATENATE(B897,F897)</f>
+        <f t="shared" ref="G897:G960" si="18">CONCATENATE(B897,F897)</f>
         <v>240629</v>
       </c>
     </row>
@@ -44735,7 +44762,7 @@
         <v>1849</v>
       </c>
       <c r="G898" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240629</v>
       </c>
     </row>
@@ -44759,7 +44786,7 @@
         <v>1849</v>
       </c>
       <c r="G899" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240629</v>
       </c>
     </row>
@@ -44783,7 +44810,7 @@
         <v>1854</v>
       </c>
       <c r="G900" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406210</v>
       </c>
     </row>
@@ -44807,7 +44834,7 @@
         <v>1854</v>
       </c>
       <c r="G901" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406210</v>
       </c>
     </row>
@@ -44831,7 +44858,7 @@
         <v>1858</v>
       </c>
       <c r="G902" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240626</v>
       </c>
     </row>
@@ -44855,7 +44882,7 @@
         <v>1861</v>
       </c>
       <c r="G903" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240627</v>
       </c>
     </row>
@@ -44879,7 +44906,7 @@
         <v>1849</v>
       </c>
       <c r="G904" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240629</v>
       </c>
     </row>
@@ -44903,7 +44930,7 @@
         <v>1865</v>
       </c>
       <c r="G905" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240625</v>
       </c>
     </row>
@@ -44927,7 +44954,7 @@
         <v>1865</v>
       </c>
       <c r="G906" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240625</v>
       </c>
     </row>
@@ -44951,7 +44978,7 @@
         <v>1865</v>
       </c>
       <c r="G907" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240625</v>
       </c>
     </row>
@@ -44975,7 +45002,7 @@
         <v>1849</v>
       </c>
       <c r="G908" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240629</v>
       </c>
     </row>
@@ -44999,7 +45026,7 @@
         <v>1865</v>
       </c>
       <c r="G909" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240625</v>
       </c>
     </row>
@@ -45023,7 +45050,7 @@
         <v>1849</v>
       </c>
       <c r="G910" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240629</v>
       </c>
     </row>
@@ -45047,7 +45074,7 @@
         <v>1849</v>
       </c>
       <c r="G911" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240629</v>
       </c>
     </row>
@@ -45071,7 +45098,7 @@
         <v>1849</v>
       </c>
       <c r="G912" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240629</v>
       </c>
     </row>
@@ -45095,7 +45122,7 @@
         <v>1875</v>
       </c>
       <c r="G913" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406211</v>
       </c>
     </row>
@@ -45119,7 +45146,7 @@
         <v>1849</v>
       </c>
       <c r="G914" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240629</v>
       </c>
     </row>
@@ -45143,7 +45170,7 @@
         <v>1875</v>
       </c>
       <c r="G915" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406211</v>
       </c>
     </row>
@@ -45167,7 +45194,7 @@
         <v>1875</v>
       </c>
       <c r="G916" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406211</v>
       </c>
     </row>
@@ -45191,7 +45218,7 @@
         <v>1875</v>
       </c>
       <c r="G917" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406211</v>
       </c>
     </row>
@@ -45215,7 +45242,7 @@
         <v>1882</v>
       </c>
       <c r="G918" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406212</v>
       </c>
     </row>
@@ -45239,7 +45266,7 @@
         <v>1882</v>
       </c>
       <c r="G919" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406212</v>
       </c>
     </row>
@@ -45263,7 +45290,7 @@
         <v>1882</v>
       </c>
       <c r="G920" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406212</v>
       </c>
     </row>
@@ -45287,7 +45314,7 @@
         <v>1882</v>
       </c>
       <c r="G921" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406212</v>
       </c>
     </row>
@@ -45311,7 +45338,7 @@
         <v>1854</v>
       </c>
       <c r="G922" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406210</v>
       </c>
     </row>
@@ -45335,7 +45362,7 @@
         <v>1854</v>
       </c>
       <c r="G923" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406210</v>
       </c>
     </row>
@@ -45359,7 +45386,7 @@
         <v>1882</v>
       </c>
       <c r="G924" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406212</v>
       </c>
     </row>
@@ -45383,7 +45410,7 @@
         <v>1854</v>
       </c>
       <c r="G925" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406210</v>
       </c>
     </row>
@@ -45407,7 +45434,7 @@
         <v>1854</v>
       </c>
       <c r="G926" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406210</v>
       </c>
     </row>
@@ -45431,7 +45458,7 @@
         <v>1893</v>
       </c>
       <c r="G927" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240624</v>
       </c>
     </row>
@@ -45455,7 +45482,7 @@
         <v>1858</v>
       </c>
       <c r="G928" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240626</v>
       </c>
     </row>
@@ -45479,7 +45506,7 @@
         <v>1893</v>
       </c>
       <c r="G929" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240624</v>
       </c>
     </row>
@@ -45503,7 +45530,7 @@
         <v>1893</v>
       </c>
       <c r="G930" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240624</v>
       </c>
     </row>
@@ -45527,7 +45554,7 @@
         <v>1858</v>
       </c>
       <c r="G931" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240626</v>
       </c>
     </row>
@@ -45551,7 +45578,7 @@
         <v>1858</v>
       </c>
       <c r="G932" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240626</v>
       </c>
     </row>
@@ -45575,7 +45602,7 @@
         <v>1901</v>
       </c>
       <c r="G933" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240628</v>
       </c>
     </row>
@@ -45599,7 +45626,7 @@
         <v>1904</v>
       </c>
       <c r="G934" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45623,7 +45650,7 @@
         <v>1904</v>
       </c>
       <c r="G935" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45647,7 +45674,7 @@
         <v>1904</v>
       </c>
       <c r="G936" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45671,7 +45698,7 @@
         <v>1904</v>
       </c>
       <c r="G937" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45695,7 +45722,7 @@
         <v>1904</v>
       </c>
       <c r="G938" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45719,7 +45746,7 @@
         <v>1904</v>
       </c>
       <c r="G939" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45743,7 +45770,7 @@
         <v>1904</v>
       </c>
       <c r="G940" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45767,7 +45794,7 @@
         <v>1904</v>
       </c>
       <c r="G941" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45791,7 +45818,7 @@
         <v>1904</v>
       </c>
       <c r="G942" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240622</v>
       </c>
     </row>
@@ -45815,7 +45842,7 @@
         <v>1915</v>
       </c>
       <c r="G943" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240623</v>
       </c>
     </row>
@@ -45839,7 +45866,7 @@
         <v>1915</v>
       </c>
       <c r="G944" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240623</v>
       </c>
     </row>
@@ -45863,7 +45890,7 @@
         <v>1915</v>
       </c>
       <c r="G945" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240623</v>
       </c>
     </row>
@@ -45887,7 +45914,7 @@
         <v>1915</v>
       </c>
       <c r="G946" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240623</v>
       </c>
     </row>
@@ -45911,7 +45938,7 @@
         <v>1915</v>
       </c>
       <c r="G947" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240623</v>
       </c>
     </row>
@@ -45935,7 +45962,7 @@
         <v>1915</v>
       </c>
       <c r="G948" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240623</v>
       </c>
     </row>
@@ -45959,7 +45986,7 @@
         <v>1915</v>
       </c>
       <c r="G949" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240623</v>
       </c>
     </row>
@@ -45983,7 +46010,7 @@
         <v>1915</v>
       </c>
       <c r="G950" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>240623</v>
       </c>
     </row>
@@ -46007,7 +46034,7 @@
         <v>1925</v>
       </c>
       <c r="G951" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406213</v>
       </c>
     </row>
@@ -46031,7 +46058,7 @@
         <v>1928</v>
       </c>
       <c r="G952" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406218</v>
       </c>
     </row>
@@ -46055,7 +46082,7 @@
         <v>1928</v>
       </c>
       <c r="G953" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406218</v>
       </c>
     </row>
@@ -46079,7 +46106,7 @@
         <v>1925</v>
       </c>
       <c r="G954" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406213</v>
       </c>
     </row>
@@ -46103,7 +46130,7 @@
         <v>1925</v>
       </c>
       <c r="G955" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406213</v>
       </c>
     </row>
@@ -46127,7 +46154,7 @@
         <v>1928</v>
       </c>
       <c r="G956" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406218</v>
       </c>
     </row>
@@ -46151,7 +46178,7 @@
         <v>1925</v>
       </c>
       <c r="G957" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406213</v>
       </c>
     </row>
@@ -46175,7 +46202,7 @@
         <v>1925</v>
       </c>
       <c r="G958" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406213</v>
       </c>
     </row>
@@ -46199,7 +46226,7 @@
         <v>1937</v>
       </c>
       <c r="G959" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406215</v>
       </c>
     </row>
@@ -46223,7 +46250,7 @@
         <v>1925</v>
       </c>
       <c r="G960" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2406213</v>
       </c>
     </row>
@@ -46247,7 +46274,7 @@
         <v>1937</v>
       </c>
       <c r="G961" s="13" t="str">
-        <f t="shared" ref="G961:G1024" si="15">CONCATENATE(B961,F961)</f>
+        <f t="shared" ref="G961:G1024" si="19">CONCATENATE(B961,F961)</f>
         <v>2406215</v>
       </c>
     </row>
@@ -46271,7 +46298,7 @@
         <v>1928</v>
       </c>
       <c r="G962" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406218</v>
       </c>
     </row>
@@ -46295,7 +46322,7 @@
         <v>1943</v>
       </c>
       <c r="G963" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406217</v>
       </c>
     </row>
@@ -46319,7 +46346,7 @@
         <v>1943</v>
       </c>
       <c r="G964" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406217</v>
       </c>
     </row>
@@ -46343,7 +46370,7 @@
         <v>1943</v>
       </c>
       <c r="G965" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406217</v>
       </c>
     </row>
@@ -46367,7 +46394,7 @@
         <v>1943</v>
       </c>
       <c r="G966" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406217</v>
       </c>
     </row>
@@ -46391,7 +46418,7 @@
         <v>1949</v>
       </c>
       <c r="G967" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406216</v>
       </c>
     </row>
@@ -46415,7 +46442,7 @@
         <v>1949</v>
       </c>
       <c r="G968" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406216</v>
       </c>
     </row>
@@ -46439,7 +46466,7 @@
         <v>1949</v>
       </c>
       <c r="G969" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406216</v>
       </c>
     </row>
@@ -46463,7 +46490,7 @@
         <v>1943</v>
       </c>
       <c r="G970" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406217</v>
       </c>
     </row>
@@ -46487,7 +46514,7 @@
         <v>1928</v>
       </c>
       <c r="G971" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406218</v>
       </c>
     </row>
@@ -46511,7 +46538,7 @@
         <v>1956</v>
       </c>
       <c r="G972" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406214</v>
       </c>
     </row>
@@ -46535,7 +46562,7 @@
         <v>1956</v>
       </c>
       <c r="G973" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406214</v>
       </c>
     </row>
@@ -46559,7 +46586,7 @@
         <v>1956</v>
       </c>
       <c r="G974" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406214</v>
       </c>
     </row>
@@ -46583,7 +46610,7 @@
         <v>1925</v>
       </c>
       <c r="G975" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406213</v>
       </c>
     </row>
@@ -46607,7 +46634,7 @@
         <v>1956</v>
       </c>
       <c r="G976" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406214</v>
       </c>
     </row>
@@ -46631,7 +46658,7 @@
         <v>1937</v>
       </c>
       <c r="G977" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406215</v>
       </c>
     </row>
@@ -46655,7 +46682,7 @@
         <v>1937</v>
       </c>
       <c r="G978" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406215</v>
       </c>
     </row>
@@ -46679,7 +46706,7 @@
         <v>1937</v>
       </c>
       <c r="G979" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406215</v>
       </c>
     </row>
@@ -46703,7 +46730,7 @@
         <v>1966</v>
       </c>
       <c r="G980" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406219</v>
       </c>
     </row>
@@ -46727,7 +46754,7 @@
         <v>1969</v>
       </c>
       <c r="G981" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406223</v>
       </c>
     </row>
@@ -46751,7 +46778,7 @@
         <v>1966</v>
       </c>
       <c r="G982" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406219</v>
       </c>
     </row>
@@ -46775,7 +46802,7 @@
         <v>1966</v>
       </c>
       <c r="G983" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406219</v>
       </c>
     </row>
@@ -46799,7 +46826,7 @@
         <v>1969</v>
       </c>
       <c r="G984" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406223</v>
       </c>
     </row>
@@ -46823,7 +46850,7 @@
         <v>1975</v>
       </c>
       <c r="G985" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406222</v>
       </c>
     </row>
@@ -46847,7 +46874,7 @@
         <v>1975</v>
       </c>
       <c r="G986" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406222</v>
       </c>
     </row>
@@ -46871,7 +46898,7 @@
         <v>1979</v>
       </c>
       <c r="G987" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406221</v>
       </c>
     </row>
@@ -46895,7 +46922,7 @@
         <v>1975</v>
       </c>
       <c r="G988" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406222</v>
       </c>
     </row>
@@ -46919,7 +46946,7 @@
         <v>1983</v>
       </c>
       <c r="G989" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406220</v>
       </c>
     </row>
@@ -46943,7 +46970,7 @@
         <v>1975</v>
       </c>
       <c r="G990" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406222</v>
       </c>
     </row>
@@ -46967,7 +46994,7 @@
         <v>1983</v>
       </c>
       <c r="G991" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406220</v>
       </c>
     </row>
@@ -46991,7 +47018,7 @@
         <v>1983</v>
       </c>
       <c r="G992" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406220</v>
       </c>
     </row>
@@ -47015,7 +47042,7 @@
         <v>1969</v>
       </c>
       <c r="G993" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406223</v>
       </c>
     </row>
@@ -47039,7 +47066,7 @@
         <v>1969</v>
       </c>
       <c r="G994" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406223</v>
       </c>
     </row>
@@ -47063,7 +47090,7 @@
         <v>1969</v>
       </c>
       <c r="G995" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406223</v>
       </c>
     </row>
@@ -47087,7 +47114,7 @@
         <v>1969</v>
       </c>
       <c r="G996" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406223</v>
       </c>
     </row>
@@ -47111,7 +47138,7 @@
         <v>1969</v>
       </c>
       <c r="G997" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406223</v>
       </c>
     </row>
@@ -47135,7 +47162,7 @@
         <v>1969</v>
       </c>
       <c r="G998" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406223</v>
       </c>
     </row>
@@ -47159,7 +47186,7 @@
         <v>1995</v>
       </c>
       <c r="G999" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406224</v>
       </c>
     </row>
@@ -47183,7 +47210,7 @@
         <v>1995</v>
       </c>
       <c r="G1000" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406224</v>
       </c>
     </row>
@@ -47207,7 +47234,7 @@
         <v>1995</v>
       </c>
       <c r="G1001" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406224</v>
       </c>
     </row>
@@ -47231,7 +47258,7 @@
         <v>1995</v>
       </c>
       <c r="G1002" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406224</v>
       </c>
     </row>
@@ -47255,7 +47282,7 @@
         <v>1995</v>
       </c>
       <c r="G1003" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406224</v>
       </c>
     </row>
@@ -47279,7 +47306,7 @@
         <v>1995</v>
       </c>
       <c r="G1004" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406224</v>
       </c>
     </row>
@@ -47303,7 +47330,7 @@
         <v>1979</v>
       </c>
       <c r="G1005" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406221</v>
       </c>
     </row>
@@ -47327,7 +47354,7 @@
         <v>1979</v>
       </c>
       <c r="G1006" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406221</v>
       </c>
     </row>
@@ -47351,7 +47378,7 @@
         <v>1979</v>
       </c>
       <c r="G1007" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406221</v>
       </c>
     </row>
@@ -47375,7 +47402,7 @@
         <v>1979</v>
       </c>
       <c r="G1008" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406221</v>
       </c>
     </row>
@@ -47399,7 +47426,7 @@
         <v>1943</v>
       </c>
       <c r="G1009" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406217</v>
       </c>
     </row>
@@ -47423,7 +47450,7 @@
         <v>1983</v>
       </c>
       <c r="G1010" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406220</v>
       </c>
     </row>
@@ -47447,7 +47474,7 @@
         <v>1979</v>
       </c>
       <c r="G1011" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2406221</v>
       </c>
     </row>
@@ -47471,7 +47498,7 @@
         <v>2010</v>
       </c>
       <c r="G1012" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>240621</v>
       </c>
     </row>
@@ -47495,7 +47522,7 @@
         <v>2010</v>
       </c>
       <c r="G1013" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>240621</v>
       </c>
     </row>
@@ -47519,7 +47546,7 @@
         <v>2010</v>
       </c>
       <c r="G1014" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>240621</v>
       </c>
     </row>
@@ -47543,7 +47570,7 @@
         <v>1</v>
       </c>
       <c r="G1015" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440211</v>
       </c>
     </row>
@@ -47567,7 +47594,7 @@
         <v>1</v>
       </c>
       <c r="G1016" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440211</v>
       </c>
     </row>
@@ -47591,7 +47618,7 @@
         <v>1</v>
       </c>
       <c r="G1017" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440211</v>
       </c>
     </row>
@@ -47615,7 +47642,7 @@
         <v>1</v>
       </c>
       <c r="G1018" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440211</v>
       </c>
     </row>
@@ -47639,7 +47666,7 @@
         <v>2</v>
       </c>
       <c r="G1019" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440212</v>
       </c>
     </row>
@@ -47663,7 +47690,7 @@
         <v>6</v>
       </c>
       <c r="G1020" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440216</v>
       </c>
     </row>
@@ -47687,7 +47714,7 @@
         <v>3</v>
       </c>
       <c r="G1021" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440213</v>
       </c>
     </row>
@@ -47711,7 +47738,7 @@
         <v>3</v>
       </c>
       <c r="G1022" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440213</v>
       </c>
     </row>
@@ -47735,7 +47762,7 @@
         <v>1</v>
       </c>
       <c r="G1023" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440211</v>
       </c>
     </row>
@@ -47759,7 +47786,7 @@
         <v>3</v>
       </c>
       <c r="G1024" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>440213</v>
       </c>
     </row>
@@ -47783,7 +47810,7 @@
         <v>1</v>
       </c>
       <c r="G1025" s="13" t="str">
-        <f t="shared" ref="G1025:G1088" si="16">CONCATENATE(B1025,F1025)</f>
+        <f t="shared" ref="G1025:G1088" si="20">CONCATENATE(B1025,F1025)</f>
         <v>440211</v>
       </c>
     </row>
@@ -47807,7 +47834,7 @@
         <v>1</v>
       </c>
       <c r="G1026" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440211</v>
       </c>
     </row>
@@ -47831,7 +47858,7 @@
         <v>1</v>
       </c>
       <c r="G1027" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440211</v>
       </c>
     </row>
@@ -47855,7 +47882,7 @@
         <v>1</v>
       </c>
       <c r="G1028" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440211</v>
       </c>
     </row>
@@ -47879,7 +47906,7 @@
         <v>1</v>
       </c>
       <c r="G1029" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440211</v>
       </c>
     </row>
@@ -47903,7 +47930,7 @@
         <v>22</v>
       </c>
       <c r="G1030" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402122</v>
       </c>
     </row>
@@ -47927,7 +47954,7 @@
         <v>22</v>
       </c>
       <c r="G1031" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402122</v>
       </c>
     </row>
@@ -47951,7 +47978,7 @@
         <v>22</v>
       </c>
       <c r="G1032" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402122</v>
       </c>
     </row>
@@ -47975,7 +48002,7 @@
         <v>22</v>
       </c>
       <c r="G1033" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402122</v>
       </c>
     </row>
@@ -47999,7 +48026,7 @@
         <v>22</v>
       </c>
       <c r="G1034" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402122</v>
       </c>
     </row>
@@ -48023,7 +48050,7 @@
         <v>5</v>
       </c>
       <c r="G1035" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440215</v>
       </c>
     </row>
@@ -48047,7 +48074,7 @@
         <v>4</v>
       </c>
       <c r="G1036" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440214</v>
       </c>
     </row>
@@ -48071,7 +48098,7 @@
         <v>5</v>
       </c>
       <c r="G1037" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440215</v>
       </c>
     </row>
@@ -48095,7 +48122,7 @@
         <v>22</v>
       </c>
       <c r="G1038" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402122</v>
       </c>
     </row>
@@ -48119,7 +48146,7 @@
         <v>4</v>
       </c>
       <c r="G1039" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440214</v>
       </c>
     </row>
@@ -48143,7 +48170,7 @@
         <v>4</v>
       </c>
       <c r="G1040" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440214</v>
       </c>
     </row>
@@ -48167,7 +48194,7 @@
         <v>4</v>
       </c>
       <c r="G1041" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440214</v>
       </c>
     </row>
@@ -48191,7 +48218,7 @@
         <v>4</v>
       </c>
       <c r="G1042" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440214</v>
       </c>
     </row>
@@ -48215,7 +48242,7 @@
         <v>4</v>
       </c>
       <c r="G1043" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440214</v>
       </c>
     </row>
@@ -48239,7 +48266,7 @@
         <v>4</v>
       </c>
       <c r="G1044" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440214</v>
       </c>
     </row>
@@ -48263,7 +48290,7 @@
         <v>2</v>
       </c>
       <c r="G1045" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440212</v>
       </c>
     </row>
@@ -48287,7 +48314,7 @@
         <v>2</v>
       </c>
       <c r="G1046" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440212</v>
       </c>
     </row>
@@ -48311,7 +48338,7 @@
         <v>2</v>
       </c>
       <c r="G1047" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440212</v>
       </c>
     </row>
@@ -48335,7 +48362,7 @@
         <v>7</v>
       </c>
       <c r="G1048" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440217</v>
       </c>
     </row>
@@ -48359,7 +48386,7 @@
         <v>5</v>
       </c>
       <c r="G1049" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440215</v>
       </c>
     </row>
@@ -48383,7 +48410,7 @@
         <v>5</v>
       </c>
       <c r="G1050" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440215</v>
       </c>
     </row>
@@ -48407,7 +48434,7 @@
         <v>6</v>
       </c>
       <c r="G1051" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440216</v>
       </c>
     </row>
@@ -48431,7 +48458,7 @@
         <v>6</v>
       </c>
       <c r="G1052" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440216</v>
       </c>
     </row>
@@ -48455,7 +48482,7 @@
         <v>7</v>
       </c>
       <c r="G1053" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440217</v>
       </c>
     </row>
@@ -48479,7 +48506,7 @@
         <v>7</v>
       </c>
       <c r="G1054" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440217</v>
       </c>
     </row>
@@ -48503,7 +48530,7 @@
         <v>7</v>
       </c>
       <c r="G1055" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>440217</v>
       </c>
     </row>
@@ -48527,7 +48554,7 @@
         <v>21</v>
       </c>
       <c r="G1056" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402121</v>
       </c>
     </row>
@@ -48551,7 +48578,7 @@
         <v>21</v>
       </c>
       <c r="G1057" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402121</v>
       </c>
     </row>
@@ -48575,7 +48602,7 @@
         <v>21</v>
       </c>
       <c r="G1058" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402121</v>
       </c>
     </row>
@@ -48599,7 +48626,7 @@
         <v>21</v>
       </c>
       <c r="G1059" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402121</v>
       </c>
     </row>
@@ -48623,7 +48650,7 @@
         <v>21</v>
       </c>
       <c r="G1060" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402121</v>
       </c>
     </row>
@@ -48647,7 +48674,7 @@
         <v>21</v>
       </c>
       <c r="G1061" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402121</v>
       </c>
     </row>
@@ -48671,7 +48698,7 @@
         <v>21</v>
       </c>
       <c r="G1062" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402121</v>
       </c>
     </row>
@@ -48695,7 +48722,7 @@
         <v>20</v>
       </c>
       <c r="G1063" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402120</v>
       </c>
     </row>
@@ -48719,7 +48746,7 @@
         <v>20</v>
       </c>
       <c r="G1064" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402120</v>
       </c>
     </row>
@@ -48743,7 +48770,7 @@
         <v>20</v>
       </c>
       <c r="G1065" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402120</v>
       </c>
     </row>
@@ -48767,7 +48794,7 @@
         <v>20</v>
       </c>
       <c r="G1066" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402120</v>
       </c>
     </row>
@@ -48791,7 +48818,7 @@
         <v>20</v>
       </c>
       <c r="G1067" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402120</v>
       </c>
     </row>
@@ -48815,7 +48842,7 @@
         <v>20</v>
       </c>
       <c r="G1068" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402120</v>
       </c>
     </row>
@@ -48839,7 +48866,7 @@
         <v>10</v>
       </c>
       <c r="G1069" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402110</v>
       </c>
     </row>
@@ -48863,7 +48890,7 @@
         <v>10</v>
       </c>
       <c r="G1070" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402110</v>
       </c>
     </row>
@@ -48887,7 +48914,7 @@
         <v>11</v>
       </c>
       <c r="G1071" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402111</v>
       </c>
     </row>
@@ -48911,7 +48938,7 @@
         <v>10</v>
       </c>
       <c r="G1072" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402110</v>
       </c>
     </row>
@@ -48935,7 +48962,7 @@
         <v>10</v>
       </c>
       <c r="G1073" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402110</v>
       </c>
     </row>
@@ -48959,7 +48986,7 @@
         <v>11</v>
       </c>
       <c r="G1074" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402111</v>
       </c>
     </row>
@@ -48983,7 +49010,7 @@
         <v>11</v>
       </c>
       <c r="G1075" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49007,7 +49034,7 @@
         <v>12</v>
       </c>
       <c r="G1076" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49031,7 +49058,7 @@
         <v>12</v>
       </c>
       <c r="G1077" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49055,7 +49082,7 @@
         <v>12</v>
       </c>
       <c r="G1078" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49079,7 +49106,7 @@
         <v>12</v>
       </c>
       <c r="G1079" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49103,7 +49130,7 @@
         <v>12</v>
       </c>
       <c r="G1080" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49127,7 +49154,7 @@
         <v>12</v>
       </c>
       <c r="G1081" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49151,7 +49178,7 @@
         <v>12</v>
       </c>
       <c r="G1082" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49175,7 +49202,7 @@
         <v>12</v>
       </c>
       <c r="G1083" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49199,7 +49226,7 @@
         <v>12</v>
       </c>
       <c r="G1084" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49223,7 +49250,7 @@
         <v>12</v>
       </c>
       <c r="G1085" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49247,7 +49274,7 @@
         <v>12</v>
       </c>
       <c r="G1086" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49271,7 +49298,7 @@
         <v>11</v>
       </c>
       <c r="G1087" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49295,7 +49322,7 @@
         <v>11</v>
       </c>
       <c r="G1088" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49319,7 +49346,7 @@
         <v>11</v>
       </c>
       <c r="G1089" s="13" t="str">
-        <f t="shared" ref="G1089:G1152" si="17">CONCATENATE(B1089,F1089)</f>
+        <f t="shared" ref="G1089:G1152" si="21">CONCATENATE(B1089,F1089)</f>
         <v>4402111</v>
       </c>
     </row>
@@ -49343,7 +49370,7 @@
         <v>11</v>
       </c>
       <c r="G1090" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49367,7 +49394,7 @@
         <v>11</v>
       </c>
       <c r="G1091" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49391,7 +49418,7 @@
         <v>11</v>
       </c>
       <c r="G1092" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49415,7 +49442,7 @@
         <v>11</v>
       </c>
       <c r="G1093" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49439,7 +49466,7 @@
         <v>11</v>
       </c>
       <c r="G1094" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49463,7 +49490,7 @@
         <v>11</v>
       </c>
       <c r="G1095" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402111</v>
       </c>
     </row>
@@ -49487,7 +49514,7 @@
         <v>14</v>
       </c>
       <c r="G1096" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49511,7 +49538,7 @@
         <v>14</v>
       </c>
       <c r="G1097" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49535,7 +49562,7 @@
         <v>13</v>
       </c>
       <c r="G1098" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402113</v>
       </c>
     </row>
@@ -49559,7 +49586,7 @@
         <v>14</v>
       </c>
       <c r="G1099" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49583,7 +49610,7 @@
         <v>13</v>
       </c>
       <c r="G1100" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402113</v>
       </c>
     </row>
@@ -49607,7 +49634,7 @@
         <v>14</v>
       </c>
       <c r="G1101" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49631,7 +49658,7 @@
         <v>14</v>
       </c>
       <c r="G1102" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49655,7 +49682,7 @@
         <v>14</v>
       </c>
       <c r="G1103" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49679,7 +49706,7 @@
         <v>14</v>
       </c>
       <c r="G1104" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49703,7 +49730,7 @@
         <v>14</v>
       </c>
       <c r="G1105" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49727,7 +49754,7 @@
         <v>12</v>
       </c>
       <c r="G1106" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402112</v>
       </c>
     </row>
@@ -49751,7 +49778,7 @@
         <v>14</v>
       </c>
       <c r="G1107" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49775,7 +49802,7 @@
         <v>13</v>
       </c>
       <c r="G1108" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402113</v>
       </c>
     </row>
@@ -49799,7 +49826,7 @@
         <v>13</v>
       </c>
       <c r="G1109" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402113</v>
       </c>
     </row>
@@ -49823,7 +49850,7 @@
         <v>14</v>
       </c>
       <c r="G1110" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402114</v>
       </c>
     </row>
@@ -49847,7 +49874,7 @@
         <v>17</v>
       </c>
       <c r="G1111" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402117</v>
       </c>
     </row>
@@ -49871,7 +49898,7 @@
         <v>16</v>
       </c>
       <c r="G1112" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402116</v>
       </c>
     </row>
@@ -49895,7 +49922,7 @@
         <v>17</v>
       </c>
       <c r="G1113" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402117</v>
       </c>
     </row>
@@ -49919,7 +49946,7 @@
         <v>16</v>
       </c>
       <c r="G1114" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402116</v>
       </c>
     </row>
@@ -49943,7 +49970,7 @@
         <v>16</v>
       </c>
       <c r="G1115" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402116</v>
       </c>
     </row>
@@ -49967,7 +49994,7 @@
         <v>15</v>
       </c>
       <c r="G1116" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402115</v>
       </c>
     </row>
@@ -49991,7 +50018,7 @@
         <v>16</v>
       </c>
       <c r="G1117" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402116</v>
       </c>
     </row>
@@ -50015,7 +50042,7 @@
         <v>15</v>
       </c>
       <c r="G1118" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402115</v>
       </c>
     </row>
@@ -50039,7 +50066,7 @@
         <v>18</v>
       </c>
       <c r="G1119" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402118</v>
       </c>
     </row>
@@ -50063,7 +50090,7 @@
         <v>17</v>
       </c>
       <c r="G1120" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402117</v>
       </c>
     </row>
@@ -50087,7 +50114,7 @@
         <v>18</v>
       </c>
       <c r="G1121" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402118</v>
       </c>
     </row>
@@ -50111,7 +50138,7 @@
         <v>18</v>
       </c>
       <c r="G1122" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402118</v>
       </c>
     </row>
@@ -50135,7 +50162,7 @@
         <v>18</v>
       </c>
       <c r="G1123" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402118</v>
       </c>
     </row>
@@ -50159,7 +50186,7 @@
         <v>17</v>
       </c>
       <c r="G1124" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402117</v>
       </c>
     </row>
@@ -50183,7 +50210,7 @@
         <v>18</v>
       </c>
       <c r="G1125" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402118</v>
       </c>
     </row>
@@ -50207,7 +50234,7 @@
         <v>18</v>
       </c>
       <c r="G1126" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402118</v>
       </c>
     </row>
@@ -50231,7 +50258,7 @@
         <v>15</v>
       </c>
       <c r="G1127" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402115</v>
       </c>
     </row>
@@ -50255,7 +50282,7 @@
         <v>19</v>
       </c>
       <c r="G1128" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50279,7 +50306,7 @@
         <v>19</v>
       </c>
       <c r="G1129" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50303,7 +50330,7 @@
         <v>19</v>
       </c>
       <c r="G1130" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50327,7 +50354,7 @@
         <v>19</v>
       </c>
       <c r="G1131" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50351,7 +50378,7 @@
         <v>19</v>
       </c>
       <c r="G1132" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50375,7 +50402,7 @@
         <v>19</v>
       </c>
       <c r="G1133" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50399,7 +50426,7 @@
         <v>19</v>
       </c>
       <c r="G1134" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50423,7 +50450,7 @@
         <v>19</v>
       </c>
       <c r="G1135" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50447,7 +50474,7 @@
         <v>19</v>
       </c>
       <c r="G1136" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50471,7 +50498,7 @@
         <v>19</v>
       </c>
       <c r="G1137" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50495,7 +50522,7 @@
         <v>19</v>
       </c>
       <c r="G1138" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50519,7 +50546,7 @@
         <v>19</v>
       </c>
       <c r="G1139" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50543,7 +50570,7 @@
         <v>19</v>
       </c>
       <c r="G1140" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50567,7 +50594,7 @@
         <v>19</v>
       </c>
       <c r="G1141" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50591,7 +50618,7 @@
         <v>19</v>
       </c>
       <c r="G1142" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50615,7 +50642,7 @@
         <v>23</v>
       </c>
       <c r="G1143" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50639,7 +50666,7 @@
         <v>23</v>
       </c>
       <c r="G1144" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50663,7 +50690,7 @@
         <v>23</v>
       </c>
       <c r="G1145" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50687,7 +50714,7 @@
         <v>19</v>
       </c>
       <c r="G1146" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402119</v>
       </c>
     </row>
@@ -50711,7 +50738,7 @@
         <v>23</v>
       </c>
       <c r="G1147" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50735,7 +50762,7 @@
         <v>23</v>
       </c>
       <c r="G1148" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50759,7 +50786,7 @@
         <v>23</v>
       </c>
       <c r="G1149" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50783,7 +50810,7 @@
         <v>23</v>
       </c>
       <c r="G1150" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50807,7 +50834,7 @@
         <v>23</v>
       </c>
       <c r="G1151" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50831,7 +50858,7 @@
         <v>23</v>
       </c>
       <c r="G1152" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50855,7 +50882,7 @@
         <v>23</v>
       </c>
       <c r="G1153" s="13" t="str">
-        <f t="shared" ref="G1153:G1215" si="18">CONCATENATE(B1153,F1153)</f>
+        <f t="shared" ref="G1153:G1215" si="22">CONCATENATE(B1153,F1153)</f>
         <v>4402123</v>
       </c>
     </row>
@@ -50879,7 +50906,7 @@
         <v>23</v>
       </c>
       <c r="G1154" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402123</v>
       </c>
     </row>
@@ -50903,7 +50930,7 @@
         <v>25</v>
       </c>
       <c r="G1155" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -50927,7 +50954,7 @@
         <v>25</v>
       </c>
       <c r="G1156" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -50951,7 +50978,7 @@
         <v>25</v>
       </c>
       <c r="G1157" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -50975,7 +51002,7 @@
         <v>25</v>
       </c>
       <c r="G1158" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -50999,7 +51026,7 @@
         <v>25</v>
       </c>
       <c r="G1159" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51023,7 +51050,7 @@
         <v>25</v>
       </c>
       <c r="G1160" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51047,7 +51074,7 @@
         <v>25</v>
       </c>
       <c r="G1161" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51071,7 +51098,7 @@
         <v>25</v>
       </c>
       <c r="G1162" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51095,7 +51122,7 @@
         <v>25</v>
       </c>
       <c r="G1163" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51119,7 +51146,7 @@
         <v>25</v>
       </c>
       <c r="G1164" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51143,7 +51170,7 @@
         <v>25</v>
       </c>
       <c r="G1165" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51167,7 +51194,7 @@
         <v>25</v>
       </c>
       <c r="G1166" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51191,7 +51218,7 @@
         <v>25</v>
       </c>
       <c r="G1167" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51215,7 +51242,7 @@
         <v>25</v>
       </c>
       <c r="G1168" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51239,7 +51266,7 @@
         <v>25</v>
       </c>
       <c r="G1169" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51263,7 +51290,7 @@
         <v>25</v>
       </c>
       <c r="G1170" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51287,7 +51314,7 @@
         <v>25</v>
       </c>
       <c r="G1171" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51311,7 +51338,7 @@
         <v>25</v>
       </c>
       <c r="G1172" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51335,7 +51362,7 @@
         <v>25</v>
       </c>
       <c r="G1173" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51359,7 +51386,7 @@
         <v>25</v>
       </c>
       <c r="G1174" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51383,7 +51410,7 @@
         <v>25</v>
       </c>
       <c r="G1175" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51407,7 +51434,7 @@
         <v>25</v>
       </c>
       <c r="G1176" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51431,7 +51458,7 @@
         <v>25</v>
       </c>
       <c r="G1177" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51455,7 +51482,7 @@
         <v>25</v>
       </c>
       <c r="G1178" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51479,7 +51506,7 @@
         <v>25</v>
       </c>
       <c r="G1179" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51503,7 +51530,7 @@
         <v>25</v>
       </c>
       <c r="G1180" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51527,7 +51554,7 @@
         <v>25</v>
       </c>
       <c r="G1181" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51551,7 +51578,7 @@
         <v>25</v>
       </c>
       <c r="G1182" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51575,7 +51602,7 @@
         <v>25</v>
       </c>
       <c r="G1183" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51599,7 +51626,7 @@
         <v>25</v>
       </c>
       <c r="G1184" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51623,7 +51650,7 @@
         <v>25</v>
       </c>
       <c r="G1185" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51647,7 +51674,7 @@
         <v>25</v>
       </c>
       <c r="G1186" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51671,7 +51698,7 @@
         <v>25</v>
       </c>
       <c r="G1187" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402125</v>
       </c>
     </row>
@@ -51695,7 +51722,7 @@
         <v>24</v>
       </c>
       <c r="G1188" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51719,7 +51746,7 @@
         <v>24</v>
       </c>
       <c r="G1189" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51743,7 +51770,7 @@
         <v>24</v>
       </c>
       <c r="G1190" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51767,7 +51794,7 @@
         <v>24</v>
       </c>
       <c r="G1191" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51791,7 +51818,7 @@
         <v>24</v>
       </c>
       <c r="G1192" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51815,7 +51842,7 @@
         <v>24</v>
       </c>
       <c r="G1193" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51839,7 +51866,7 @@
         <v>24</v>
       </c>
       <c r="G1194" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51863,7 +51890,7 @@
         <v>24</v>
       </c>
       <c r="G1195" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51887,7 +51914,7 @@
         <v>24</v>
       </c>
       <c r="G1196" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51911,7 +51938,7 @@
         <v>9</v>
       </c>
       <c r="G1197" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440219</v>
       </c>
     </row>
@@ -51935,7 +51962,7 @@
         <v>24</v>
       </c>
       <c r="G1198" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51959,7 +51986,7 @@
         <v>24</v>
       </c>
       <c r="G1199" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -51983,7 +52010,7 @@
         <v>8</v>
       </c>
       <c r="G1200" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52007,7 +52034,7 @@
         <v>8</v>
       </c>
       <c r="G1201" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52031,7 +52058,7 @@
         <v>8</v>
       </c>
       <c r="G1202" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52055,7 +52082,7 @@
         <v>8</v>
       </c>
       <c r="G1203" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52079,7 +52106,7 @@
         <v>8</v>
       </c>
       <c r="G1204" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52103,7 +52130,7 @@
         <v>8</v>
       </c>
       <c r="G1205" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52127,7 +52154,7 @@
         <v>8</v>
       </c>
       <c r="G1206" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52151,7 +52178,7 @@
         <v>8</v>
       </c>
       <c r="G1207" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52175,7 +52202,7 @@
         <v>9</v>
       </c>
       <c r="G1208" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440219</v>
       </c>
     </row>
@@ -52199,7 +52226,7 @@
         <v>24</v>
       </c>
       <c r="G1209" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402124</v>
       </c>
     </row>
@@ -52223,7 +52250,7 @@
         <v>9</v>
       </c>
       <c r="G1210" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440219</v>
       </c>
     </row>
@@ -52247,7 +52274,7 @@
         <v>8</v>
       </c>
       <c r="G1211" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52271,7 +52298,7 @@
         <v>8</v>
       </c>
       <c r="G1212" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>440218</v>
       </c>
     </row>
@@ -52295,7 +52322,7 @@
         <v>11</v>
       </c>
       <c r="G1213" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402111</v>
       </c>
     </row>
@@ -52319,7 +52346,7 @@
         <v>11</v>
       </c>
       <c r="G1214" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402111</v>
       </c>
     </row>
@@ -52343,7 +52370,7 @@
         <v>11</v>
       </c>
       <c r="G1215" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4402111</v>
       </c>
     </row>
@@ -55098,13 +55125,13 @@
         <v>2291</v>
       </c>
       <c r="E1335" s="1" t="s">
-        <v>882</v>
+        <v>2870</v>
       </c>
       <c r="F1335" t="s">
-        <v>880</v>
+        <v>2868</v>
       </c>
       <c r="G1335" t="s">
-        <v>2389</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1336" spans="1:7" x14ac:dyDescent="0.35">
@@ -55998,7 +56025,7 @@
         <v>2419</v>
       </c>
       <c r="F1374" s="13" t="s">
-        <v>2420</v>
+        <v>2871</v>
       </c>
       <c r="G1374" s="13" t="s">
         <v>2421</v>
@@ -56018,13 +56045,13 @@
         <v>2291</v>
       </c>
       <c r="E1375" s="1" t="s">
-        <v>2419</v>
+        <v>2872</v>
       </c>
       <c r="F1375" t="s">
-        <v>2420</v>
+        <v>2873</v>
       </c>
       <c r="G1375" t="s">
-        <v>2421</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1376" spans="1:7" x14ac:dyDescent="0.35">
@@ -56469,16 +56496,16 @@
         <v>2718</v>
       </c>
       <c r="B1395" s="1">
-        <v>72025</v>
+        <v>72043</v>
       </c>
       <c r="C1395" s="1" t="s">
-        <v>740</v>
+        <v>2875</v>
       </c>
       <c r="D1395" s="1" t="s">
         <v>2291</v>
       </c>
       <c r="E1395" s="1" t="s">
-        <v>1682</v>
+        <v>2876</v>
       </c>
       <c r="F1395" t="s">
         <v>2437</v>
@@ -56491,11 +56518,11 @@
       <c r="A1396" s="5" t="s">
         <v>2719</v>
       </c>
-      <c r="B1396" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1396" s="1" t="s">
-        <v>740</v>
+      <c r="B1396" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1396" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1396" s="1" t="s">
         <v>2291</v>
@@ -56514,11 +56541,11 @@
       <c r="A1397" s="5" t="s">
         <v>2720</v>
       </c>
-      <c r="B1397" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1397" s="1" t="s">
-        <v>740</v>
+      <c r="B1397" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1397" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1397" s="1" t="s">
         <v>2291</v>
@@ -56537,17 +56564,17 @@
       <c r="A1398" s="5" t="s">
         <v>2721</v>
       </c>
-      <c r="B1398" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1398" s="1" t="s">
-        <v>740</v>
+      <c r="B1398" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1398" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1398" s="1" t="s">
         <v>2291</v>
       </c>
       <c r="E1398" s="1" t="s">
-        <v>1682</v>
+        <v>2876</v>
       </c>
       <c r="F1398" t="s">
         <v>2437</v>
@@ -56560,11 +56587,11 @@
       <c r="A1399" s="5" t="s">
         <v>2722</v>
       </c>
-      <c r="B1399" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1399" s="1" t="s">
-        <v>740</v>
+      <c r="B1399" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1399" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1399" s="1" t="s">
         <v>2291</v>
@@ -56583,11 +56610,11 @@
       <c r="A1400" s="5" t="s">
         <v>2723</v>
       </c>
-      <c r="B1400" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1400" s="1" t="s">
-        <v>740</v>
+      <c r="B1400" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1400" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1400" s="1" t="s">
         <v>2291</v>
@@ -56606,11 +56633,11 @@
       <c r="A1401" s="5" t="s">
         <v>2724</v>
       </c>
-      <c r="B1401" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1401" s="1" t="s">
-        <v>740</v>
+      <c r="B1401" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1401" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1401" s="1" t="s">
         <v>2291</v>
@@ -56629,11 +56656,11 @@
       <c r="A1402" s="5" t="s">
         <v>2725</v>
       </c>
-      <c r="B1402" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1402" s="1" t="s">
-        <v>740</v>
+      <c r="B1402" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1402" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1402" s="1" t="s">
         <v>2291</v>
@@ -56652,11 +56679,11 @@
       <c r="A1403" s="5" t="s">
         <v>2726</v>
       </c>
-      <c r="B1403" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1403" s="1" t="s">
-        <v>740</v>
+      <c r="B1403" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1403" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1403" s="1" t="s">
         <v>2291</v>
@@ -56675,11 +56702,11 @@
       <c r="A1404" s="5" t="s">
         <v>2727</v>
       </c>
-      <c r="B1404" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1404" s="1" t="s">
-        <v>740</v>
+      <c r="B1404" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1404" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1404" s="1" t="s">
         <v>2291</v>
@@ -56698,11 +56725,11 @@
       <c r="A1405" s="5" t="s">
         <v>2728</v>
       </c>
-      <c r="B1405" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1405" s="1" t="s">
-        <v>740</v>
+      <c r="B1405" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1405" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1405" s="1" t="s">
         <v>2291</v>
@@ -56721,11 +56748,11 @@
       <c r="A1406" s="5" t="s">
         <v>2729</v>
       </c>
-      <c r="B1406" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1406" s="1" t="s">
-        <v>740</v>
+      <c r="B1406" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1406" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1406" s="1" t="s">
         <v>2291</v>
@@ -56744,11 +56771,11 @@
       <c r="A1407" s="5" t="s">
         <v>2730</v>
       </c>
-      <c r="B1407" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1407" s="1" t="s">
-        <v>740</v>
+      <c r="B1407" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1407" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1407" s="1" t="s">
         <v>2291</v>
@@ -56767,11 +56794,11 @@
       <c r="A1408" s="5" t="s">
         <v>2731</v>
       </c>
-      <c r="B1408" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1408" s="1" t="s">
-        <v>740</v>
+      <c r="B1408" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1408" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1408" s="1" t="s">
         <v>2291</v>
@@ -56790,11 +56817,11 @@
       <c r="A1409" s="5" t="s">
         <v>2732</v>
       </c>
-      <c r="B1409" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1409" s="1" t="s">
-        <v>740</v>
+      <c r="B1409" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1409" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1409" s="1" t="s">
         <v>2291</v>
@@ -56813,11 +56840,11 @@
       <c r="A1410" s="5" t="s">
         <v>2733</v>
       </c>
-      <c r="B1410" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1410" s="1" t="s">
-        <v>740</v>
+      <c r="B1410" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1410" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1410" s="1" t="s">
         <v>2291</v>
@@ -56836,11 +56863,11 @@
       <c r="A1411" s="5" t="s">
         <v>2734</v>
       </c>
-      <c r="B1411" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1411" s="1" t="s">
-        <v>740</v>
+      <c r="B1411" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1411" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1411" s="1" t="s">
         <v>2291</v>
@@ -56859,11 +56886,11 @@
       <c r="A1412" s="5" t="s">
         <v>2735</v>
       </c>
-      <c r="B1412" s="1">
-        <v>72025</v>
-      </c>
-      <c r="C1412" s="1" t="s">
-        <v>740</v>
+      <c r="B1412" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1412" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1412" s="1" t="s">
         <v>2291</v>
@@ -56882,11 +56909,11 @@
       <c r="A1413" s="5" t="s">
         <v>2736</v>
       </c>
-      <c r="B1413" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1413" s="1" t="s">
-        <v>741</v>
+      <c r="B1413" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1413" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1413" s="1" t="s">
         <v>2291</v>
@@ -56905,11 +56932,11 @@
       <c r="A1414" s="5" t="s">
         <v>2737</v>
       </c>
-      <c r="B1414" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1414" s="1" t="s">
-        <v>741</v>
+      <c r="B1414" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1414" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1414" s="1" t="s">
         <v>2291</v>
@@ -56928,11 +56955,11 @@
       <c r="A1415" s="5" t="s">
         <v>2738</v>
       </c>
-      <c r="B1415" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1415" s="1" t="s">
-        <v>741</v>
+      <c r="B1415" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1415" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1415" s="1" t="s">
         <v>2291</v>
@@ -56951,11 +56978,11 @@
       <c r="A1416" s="5" t="s">
         <v>2739</v>
       </c>
-      <c r="B1416" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1416" s="1" t="s">
-        <v>741</v>
+      <c r="B1416" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1416" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1416" s="1" t="s">
         <v>2291</v>
@@ -56974,11 +57001,11 @@
       <c r="A1417" s="5" t="s">
         <v>2740</v>
       </c>
-      <c r="B1417" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1417" s="1" t="s">
-        <v>741</v>
+      <c r="B1417" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1417" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1417" s="1" t="s">
         <v>2291</v>
@@ -56997,11 +57024,11 @@
       <c r="A1418" s="5" t="s">
         <v>2741</v>
       </c>
-      <c r="B1418" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1418" s="1" t="s">
-        <v>741</v>
+      <c r="B1418" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1418" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1418" s="1" t="s">
         <v>2291</v>
@@ -57020,11 +57047,11 @@
       <c r="A1419" s="5" t="s">
         <v>2742</v>
       </c>
-      <c r="B1419" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1419" s="1" t="s">
-        <v>741</v>
+      <c r="B1419" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1419" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1419" s="1" t="s">
         <v>2291</v>
@@ -57043,11 +57070,11 @@
       <c r="A1420" s="5" t="s">
         <v>2743</v>
       </c>
-      <c r="B1420" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1420" s="1" t="s">
-        <v>741</v>
+      <c r="B1420" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1420" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1420" s="1" t="s">
         <v>2291</v>
@@ -57066,11 +57093,11 @@
       <c r="A1421" s="5" t="s">
         <v>2744</v>
       </c>
-      <c r="B1421" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1421" s="1" t="s">
-        <v>741</v>
+      <c r="B1421" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1421" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1421" s="1" t="s">
         <v>2291</v>
@@ -57089,11 +57116,11 @@
       <c r="A1422" s="5" t="s">
         <v>2745</v>
       </c>
-      <c r="B1422" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1422" s="1" t="s">
-        <v>741</v>
+      <c r="B1422" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1422" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1422" s="1" t="s">
         <v>2291</v>
@@ -57112,11 +57139,11 @@
       <c r="A1423" s="5" t="s">
         <v>2746</v>
       </c>
-      <c r="B1423" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1423" s="1" t="s">
-        <v>741</v>
+      <c r="B1423" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1423" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1423" s="1" t="s">
         <v>2291</v>
@@ -57135,11 +57162,11 @@
       <c r="A1424" s="5" t="s">
         <v>2747</v>
       </c>
-      <c r="B1424" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1424" s="1" t="s">
-        <v>741</v>
+      <c r="B1424" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1424" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1424" s="1" t="s">
         <v>2291</v>
@@ -57158,11 +57185,11 @@
       <c r="A1425" s="5" t="s">
         <v>2748</v>
       </c>
-      <c r="B1425" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1425" s="1" t="s">
-        <v>741</v>
+      <c r="B1425" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1425" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1425" s="1" t="s">
         <v>2291</v>
@@ -57181,11 +57208,11 @@
       <c r="A1426" s="5" t="s">
         <v>2749</v>
       </c>
-      <c r="B1426" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1426" s="1" t="s">
-        <v>741</v>
+      <c r="B1426" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1426" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1426" s="1" t="s">
         <v>2291</v>
@@ -57204,11 +57231,11 @@
       <c r="A1427" s="5" t="s">
         <v>2750</v>
       </c>
-      <c r="B1427" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1427" s="1" t="s">
-        <v>741</v>
+      <c r="B1427" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1427" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1427" s="1" t="s">
         <v>2291</v>
@@ -57227,11 +57254,11 @@
       <c r="A1428" s="5" t="s">
         <v>2751</v>
       </c>
-      <c r="B1428" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1428" s="1" t="s">
-        <v>741</v>
+      <c r="B1428" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1428" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1428" s="1" t="s">
         <v>2291</v>
@@ -57250,11 +57277,11 @@
       <c r="A1429" s="5" t="s">
         <v>2752</v>
       </c>
-      <c r="B1429" s="1">
-        <v>72029</v>
-      </c>
-      <c r="C1429" s="1" t="s">
-        <v>741</v>
+      <c r="B1429" s="14">
+        <v>72043</v>
+      </c>
+      <c r="C1429" s="14" t="s">
+        <v>2875</v>
       </c>
       <c r="D1429" s="1" t="s">
         <v>2291</v>

--- a/gemeente_statsec_wijken/gemeentegedragen_wijken.xlsx
+++ b/gemeente_statsec_wijken/gemeentegedragen_wijken.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="aandachtspunten" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9341" uniqueCount="2877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9341" uniqueCount="2876">
   <si>
     <t>CODSEC</t>
   </si>
@@ -8641,9 +8641,6 @@
   </si>
   <si>
     <t>Mellaar</t>
-  </si>
-  <si>
-    <t>DP</t>
   </si>
   <si>
     <t>Dorperveld</t>
@@ -23065,7 +23062,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1397" sqref="A1397"/>
+      <selection pane="bottomLeft" activeCell="A1374" sqref="A1374:XFD1375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31836,7 +31833,7 @@
         <v>2280</v>
       </c>
       <c r="G365" s="13" t="str">
-        <f t="shared" ref="G365:G396" si="7">CONCATENATE(B365,F365)</f>
+        <f t="shared" ref="G365:G386" si="7">CONCATENATE(B365,F365)</f>
         <v>13040_3</v>
       </c>
     </row>
@@ -56022,13 +56019,13 @@
         <v>2291</v>
       </c>
       <c r="E1374" s="14" t="s">
-        <v>2419</v>
+        <v>2871</v>
       </c>
       <c r="F1374" s="13" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="G1374" s="13" t="s">
-        <v>2421</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="1375" spans="1:7" x14ac:dyDescent="0.35">
@@ -56044,14 +56041,14 @@
       <c r="D1375" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="E1375" s="1" t="s">
-        <v>2872</v>
-      </c>
-      <c r="F1375" t="s">
-        <v>2873</v>
-      </c>
-      <c r="G1375" t="s">
-        <v>2874</v>
+      <c r="E1375" s="14" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F1375" s="13" t="s">
+        <v>2420</v>
+      </c>
+      <c r="G1375" s="13" t="s">
+        <v>2421</v>
       </c>
     </row>
     <row r="1376" spans="1:7" x14ac:dyDescent="0.35">
@@ -56499,13 +56496,13 @@
         <v>72043</v>
       </c>
       <c r="C1395" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1395" s="1" t="s">
         <v>2291</v>
       </c>
       <c r="E1395" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="F1395" t="s">
         <v>2437</v>
@@ -56522,7 +56519,7 @@
         <v>72043</v>
       </c>
       <c r="C1396" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1396" s="1" t="s">
         <v>2291</v>
@@ -56545,7 +56542,7 @@
         <v>72043</v>
       </c>
       <c r="C1397" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1397" s="1" t="s">
         <v>2291</v>
@@ -56568,13 +56565,13 @@
         <v>72043</v>
       </c>
       <c r="C1398" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1398" s="1" t="s">
         <v>2291</v>
       </c>
       <c r="E1398" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="F1398" t="s">
         <v>2437</v>
@@ -56591,7 +56588,7 @@
         <v>72043</v>
       </c>
       <c r="C1399" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1399" s="1" t="s">
         <v>2291</v>
@@ -56614,7 +56611,7 @@
         <v>72043</v>
       </c>
       <c r="C1400" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1400" s="1" t="s">
         <v>2291</v>
@@ -56637,7 +56634,7 @@
         <v>72043</v>
       </c>
       <c r="C1401" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1401" s="1" t="s">
         <v>2291</v>
@@ -56660,7 +56657,7 @@
         <v>72043</v>
       </c>
       <c r="C1402" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1402" s="1" t="s">
         <v>2291</v>
@@ -56683,7 +56680,7 @@
         <v>72043</v>
       </c>
       <c r="C1403" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1403" s="1" t="s">
         <v>2291</v>
@@ -56706,7 +56703,7 @@
         <v>72043</v>
       </c>
       <c r="C1404" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1404" s="1" t="s">
         <v>2291</v>
@@ -56729,7 +56726,7 @@
         <v>72043</v>
       </c>
       <c r="C1405" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1405" s="1" t="s">
         <v>2291</v>
@@ -56752,7 +56749,7 @@
         <v>72043</v>
       </c>
       <c r="C1406" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1406" s="1" t="s">
         <v>2291</v>
@@ -56775,7 +56772,7 @@
         <v>72043</v>
       </c>
       <c r="C1407" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1407" s="1" t="s">
         <v>2291</v>
@@ -56798,7 +56795,7 @@
         <v>72043</v>
       </c>
       <c r="C1408" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1408" s="1" t="s">
         <v>2291</v>
@@ -56821,7 +56818,7 @@
         <v>72043</v>
       </c>
       <c r="C1409" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1409" s="1" t="s">
         <v>2291</v>
@@ -56844,7 +56841,7 @@
         <v>72043</v>
       </c>
       <c r="C1410" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1410" s="1" t="s">
         <v>2291</v>
@@ -56867,7 +56864,7 @@
         <v>72043</v>
       </c>
       <c r="C1411" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1411" s="1" t="s">
         <v>2291</v>
@@ -56890,7 +56887,7 @@
         <v>72043</v>
       </c>
       <c r="C1412" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1412" s="1" t="s">
         <v>2291</v>
@@ -56913,7 +56910,7 @@
         <v>72043</v>
       </c>
       <c r="C1413" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1413" s="1" t="s">
         <v>2291</v>
@@ -56936,7 +56933,7 @@
         <v>72043</v>
       </c>
       <c r="C1414" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1414" s="1" t="s">
         <v>2291</v>
@@ -56959,7 +56956,7 @@
         <v>72043</v>
       </c>
       <c r="C1415" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1415" s="1" t="s">
         <v>2291</v>
@@ -56982,7 +56979,7 @@
         <v>72043</v>
       </c>
       <c r="C1416" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1416" s="1" t="s">
         <v>2291</v>
@@ -57005,7 +57002,7 @@
         <v>72043</v>
       </c>
       <c r="C1417" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1417" s="1" t="s">
         <v>2291</v>
@@ -57028,7 +57025,7 @@
         <v>72043</v>
       </c>
       <c r="C1418" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1418" s="1" t="s">
         <v>2291</v>
@@ -57051,7 +57048,7 @@
         <v>72043</v>
       </c>
       <c r="C1419" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1419" s="1" t="s">
         <v>2291</v>
@@ -57074,7 +57071,7 @@
         <v>72043</v>
       </c>
       <c r="C1420" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1420" s="1" t="s">
         <v>2291</v>
@@ -57097,7 +57094,7 @@
         <v>72043</v>
       </c>
       <c r="C1421" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1421" s="1" t="s">
         <v>2291</v>
@@ -57120,7 +57117,7 @@
         <v>72043</v>
       </c>
       <c r="C1422" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1422" s="1" t="s">
         <v>2291</v>
@@ -57143,7 +57140,7 @@
         <v>72043</v>
       </c>
       <c r="C1423" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1423" s="1" t="s">
         <v>2291</v>
@@ -57166,7 +57163,7 @@
         <v>72043</v>
       </c>
       <c r="C1424" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1424" s="1" t="s">
         <v>2291</v>
@@ -57189,7 +57186,7 @@
         <v>72043</v>
       </c>
       <c r="C1425" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1425" s="1" t="s">
         <v>2291</v>
@@ -57212,7 +57209,7 @@
         <v>72043</v>
       </c>
       <c r="C1426" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1426" s="1" t="s">
         <v>2291</v>
@@ -57235,7 +57232,7 @@
         <v>72043</v>
       </c>
       <c r="C1427" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1427" s="1" t="s">
         <v>2291</v>
@@ -57258,7 +57255,7 @@
         <v>72043</v>
       </c>
       <c r="C1428" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1428" s="1" t="s">
         <v>2291</v>
@@ -57281,7 +57278,7 @@
         <v>72043</v>
       </c>
       <c r="C1429" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1429" s="1" t="s">
         <v>2291</v>

--- a/gemeente_statsec_wijken/gemeentegedragen_wijken.xlsx
+++ b/gemeente_statsec_wijken/gemeentegedragen_wijken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\gemeente_statsec_wijken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75D6692-0C4E-4058-935B-27AFB71BB0C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABAF455-94C6-4A3C-BEE0-5E4F04A7D345}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4875" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4875" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aandachtspunten" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10347,9 +10347,6 @@
     <t>36015A154</t>
   </si>
   <si>
-    <t>krottegem</t>
-  </si>
-  <si>
     <t>36015A172</t>
   </si>
   <si>
@@ -10816,6 +10813,9 @@
   </si>
   <si>
     <t>36015ONB</t>
+  </si>
+  <si>
+    <t>BAL</t>
   </si>
 </sst>
 </file>
@@ -11422,7 +11422,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Joost Schouppe" refreshedDate="44167.614081944441" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2157" xr:uid="{658A765B-3627-45E6-BE73-1BDBC1B8B1A6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Joost Schouppe" refreshedDate="44180.499011574073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2157" xr:uid="{658A765B-3627-45E6-BE73-1BDBC1B8B1A6}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="basistabel"/>
   </cacheSource>
@@ -11934,9 +11934,9 @@
         <s v="Wijk onbekend - Zutendaal"/>
         <s v="Zutendaal-Centrum"/>
         <m/>
+        <s v="Geneiken " u="1"/>
         <s v="Thiewinkel" u="1"/>
         <s v="Niet te lokaliseren" u="1"/>
-        <s v="Geneiken " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Gebiedscode van de wijk" numFmtId="0">
@@ -31373,7 +31373,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6D9B163-D488-42BD-9AFB-0FC25202BF33}" name="Draaitabel1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6D9B163-D488-42BD-9AFB-0FC25202BF33}" name="Draaitabel1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:A53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -31553,7 +31553,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{924F4D94-D003-418B-8CB2-8E0D1303CF85}" name="Draaitabel2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{924F4D94-D003-418B-8CB2-8E0D1303CF85}" name="Draaitabel2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D17:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -31710,7 +31710,7 @@
         <item x="360"/>
         <item x="56"/>
         <item x="361"/>
-        <item m="1" x="457"/>
+        <item m="1" x="458"/>
         <item x="57"/>
         <item x="58"/>
         <item x="59"/>
@@ -31841,10 +31841,10 @@
         <item x="314"/>
         <item x="313"/>
         <item x="315"/>
-        <item m="1" x="456"/>
+        <item m="1" x="457"/>
         <item x="316"/>
         <item x="317"/>
-        <item m="1" x="458"/>
+        <item m="1" x="456"/>
         <item x="307"/>
         <item x="303"/>
         <item x="306"/>
@@ -32470,7 +32470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
       <pivotSelection pane="bottomRight" showHeader="1" extendable="1" start="6" max="29" activeRow="23" click="1" r:id="rId1">
         <pivotArea dataOnly="0" fieldPosition="0">
@@ -32913,9 +32913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2157"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1469" sqref="B1469"/>
+      <selection pane="bottomLeft" activeCell="F1454" sqref="F1454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -67761,7 +67761,7 @@
     </row>
     <row r="1452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1452" s="21" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="B1452" s="20">
         <v>72020</v>
@@ -67770,22 +67770,22 @@
         <v>738</v>
       </c>
       <c r="D1452" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1452" s="20" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="F1452" s="20" t="s">
-        <v>821</v>
+        <v>3592</v>
       </c>
       <c r="G1452" s="22" t="str">
         <f t="shared" si="22"/>
-        <v>72020BA</v>
+        <v>72020BAL</v>
       </c>
     </row>
     <row r="1453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1453" s="21" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="B1453" s="20">
         <v>72020</v>
@@ -67794,22 +67794,22 @@
         <v>738</v>
       </c>
       <c r="D1453" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1453" s="20" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="F1453" s="20" t="s">
-        <v>821</v>
+        <v>3592</v>
       </c>
       <c r="G1453" s="22" t="str">
         <f t="shared" si="22"/>
-        <v>72020BA</v>
+        <v>72020BAL</v>
       </c>
     </row>
     <row r="1454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1454" s="21" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="B1454" s="20">
         <v>72020</v>
@@ -67818,10 +67818,10 @@
         <v>738</v>
       </c>
       <c r="D1454" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1454" s="20" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="F1454" s="20" t="s">
         <v>821</v>
@@ -67833,7 +67833,7 @@
     </row>
     <row r="1455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1455" s="21" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="B1455" s="20">
         <v>72020</v>
@@ -67842,10 +67842,10 @@
         <v>738</v>
       </c>
       <c r="D1455" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1455" s="20" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="F1455" s="20" t="s">
         <v>821</v>
@@ -67857,7 +67857,7 @@
     </row>
     <row r="1456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1456" s="21" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="B1456" s="20">
         <v>72020</v>
@@ -67866,10 +67866,10 @@
         <v>738</v>
       </c>
       <c r="D1456" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1456" s="20" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="F1456" s="20" t="s">
         <v>821</v>
@@ -67881,7 +67881,7 @@
     </row>
     <row r="1457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1457" s="21" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="B1457" s="20">
         <v>72020</v>
@@ -67890,10 +67890,10 @@
         <v>738</v>
       </c>
       <c r="D1457" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1457" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1457" s="20" t="s">
         <v>3403</v>
@@ -67905,7 +67905,7 @@
     </row>
     <row r="1458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1458" s="21" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="B1458" s="20">
         <v>72020</v>
@@ -67914,10 +67914,10 @@
         <v>738</v>
       </c>
       <c r="D1458" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1458" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1458" s="20" t="s">
         <v>3403</v>
@@ -67929,7 +67929,7 @@
     </row>
     <row r="1459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1459" s="21" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="B1459" s="20">
         <v>72020</v>
@@ -67938,10 +67938,10 @@
         <v>738</v>
       </c>
       <c r="D1459" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1459" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1459" s="20" t="s">
         <v>3403</v>
@@ -67953,7 +67953,7 @@
     </row>
     <row r="1460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1460" s="21" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="B1460" s="20">
         <v>72020</v>
@@ -67962,10 +67962,10 @@
         <v>738</v>
       </c>
       <c r="D1460" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1460" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1460" s="20" t="s">
         <v>3403</v>
@@ -67977,7 +67977,7 @@
     </row>
     <row r="1461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1461" s="21" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="B1461" s="20">
         <v>72020</v>
@@ -67986,10 +67986,10 @@
         <v>738</v>
       </c>
       <c r="D1461" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1461" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1461" s="20" t="s">
         <v>3403</v>
@@ -68001,7 +68001,7 @@
     </row>
     <row r="1462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1462" s="21" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="B1462" s="20">
         <v>72020</v>
@@ -68010,10 +68010,10 @@
         <v>738</v>
       </c>
       <c r="D1462" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1462" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1462" s="20" t="s">
         <v>3403</v>
@@ -68025,7 +68025,7 @@
     </row>
     <row r="1463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1463" s="21" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="B1463" s="20">
         <v>72020</v>
@@ -68034,10 +68034,10 @@
         <v>738</v>
       </c>
       <c r="D1463" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1463" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1463" s="20" t="s">
         <v>3403</v>
@@ -68049,7 +68049,7 @@
     </row>
     <row r="1464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1464" s="21" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="B1464" s="20">
         <v>72020</v>
@@ -68058,10 +68058,10 @@
         <v>738</v>
       </c>
       <c r="D1464" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1464" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1464" s="20" t="s">
         <v>3403</v>
@@ -68073,7 +68073,7 @@
     </row>
     <row r="1465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1465" s="21" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="B1465" s="20">
         <v>72020</v>
@@ -68082,10 +68082,10 @@
         <v>738</v>
       </c>
       <c r="D1465" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1465" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1465" s="20" t="s">
         <v>3403</v>
@@ -68097,7 +68097,7 @@
     </row>
     <row r="1466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1466" s="21" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B1466" s="20">
         <v>72020</v>
@@ -68106,10 +68106,10 @@
         <v>738</v>
       </c>
       <c r="D1466" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1466" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1466" s="20" t="s">
         <v>3403</v>
@@ -68121,7 +68121,7 @@
     </row>
     <row r="1467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1467" s="21" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B1467" s="20">
         <v>72020</v>
@@ -68130,10 +68130,10 @@
         <v>738</v>
       </c>
       <c r="D1467" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1467" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1467" s="20" t="s">
         <v>3403</v>
@@ -68145,7 +68145,7 @@
     </row>
     <row r="1468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1468" s="21" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="B1468" s="20">
         <v>72020</v>
@@ -68154,10 +68154,10 @@
         <v>738</v>
       </c>
       <c r="D1468" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1468" s="20" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="F1468" s="20" t="s">
         <v>3403</v>
@@ -68169,7 +68169,7 @@
     </row>
     <row r="1469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1469" s="21" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="B1469" s="20">
         <v>72020</v>
@@ -68178,10 +68178,10 @@
         <v>738</v>
       </c>
       <c r="D1469" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1469" s="20" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="F1469" s="20" t="s">
         <v>856</v>
@@ -68193,7 +68193,7 @@
     </row>
     <row r="1470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1470" s="21" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="B1470" s="20">
         <v>72020</v>
@@ -68202,13 +68202,13 @@
         <v>738</v>
       </c>
       <c r="D1470" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1470" s="20" t="s">
+        <v>3571</v>
+      </c>
+      <c r="F1470" s="20" t="s">
         <v>3572</v>
-      </c>
-      <c r="F1470" s="20" t="s">
-        <v>3573</v>
       </c>
       <c r="G1470" s="22" t="str">
         <f t="shared" si="22"/>
@@ -68217,7 +68217,7 @@
     </row>
     <row r="1471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1471" s="21" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B1471" s="20">
         <v>72020</v>
@@ -68226,13 +68226,13 @@
         <v>738</v>
       </c>
       <c r="D1471" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1471" s="20" t="s">
+        <v>3571</v>
+      </c>
+      <c r="F1471" s="20" t="s">
         <v>3572</v>
-      </c>
-      <c r="F1471" s="20" t="s">
-        <v>3573</v>
       </c>
       <c r="G1471" s="22" t="str">
         <f t="shared" si="22"/>
@@ -68241,7 +68241,7 @@
     </row>
     <row r="1472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1472" s="21" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B1472" s="20">
         <v>72020</v>
@@ -68250,13 +68250,13 @@
         <v>738</v>
       </c>
       <c r="D1472" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1472" s="20" t="s">
+        <v>3571</v>
+      </c>
+      <c r="F1472" s="20" t="s">
         <v>3572</v>
-      </c>
-      <c r="F1472" s="20" t="s">
-        <v>3573</v>
       </c>
       <c r="G1472" s="22" t="str">
         <f t="shared" si="22"/>
@@ -68265,7 +68265,7 @@
     </row>
     <row r="1473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1473" s="21" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="B1473" s="20">
         <v>72020</v>
@@ -68274,13 +68274,13 @@
         <v>738</v>
       </c>
       <c r="D1473" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1473" s="20" t="s">
+        <v>3571</v>
+      </c>
+      <c r="F1473" s="20" t="s">
         <v>3572</v>
-      </c>
-      <c r="F1473" s="20" t="s">
-        <v>3573</v>
       </c>
       <c r="G1473" s="22" t="str">
         <f t="shared" si="22"/>
@@ -68289,7 +68289,7 @@
     </row>
     <row r="1474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1474" s="21" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="B1474" s="20">
         <v>72020</v>
@@ -68298,13 +68298,13 @@
         <v>738</v>
       </c>
       <c r="D1474" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1474" s="20" t="s">
+        <v>3571</v>
+      </c>
+      <c r="F1474" s="20" t="s">
         <v>3572</v>
-      </c>
-      <c r="F1474" s="20" t="s">
-        <v>3573</v>
       </c>
       <c r="G1474" s="22" t="str">
         <f t="shared" ref="G1474:G1537" si="23">CONCATENATE(B1474,F1474)</f>
@@ -68313,7 +68313,7 @@
     </row>
     <row r="1475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1475" s="21" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="B1475" s="20">
         <v>72020</v>
@@ -68322,13 +68322,13 @@
         <v>738</v>
       </c>
       <c r="D1475" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1475" s="20" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F1475" s="20" t="s">
         <v>3535</v>
-      </c>
-      <c r="F1475" s="20" t="s">
-        <v>3536</v>
       </c>
       <c r="G1475" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68337,7 +68337,7 @@
     </row>
     <row r="1476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1476" s="21" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="B1476" s="20">
         <v>72020</v>
@@ -68346,13 +68346,13 @@
         <v>738</v>
       </c>
       <c r="D1476" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1476" s="20" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F1476" s="20" t="s">
         <v>3535</v>
-      </c>
-      <c r="F1476" s="20" t="s">
-        <v>3536</v>
       </c>
       <c r="G1476" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68361,7 +68361,7 @@
     </row>
     <row r="1477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1477" s="21" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="B1477" s="20">
         <v>72020</v>
@@ -68370,13 +68370,13 @@
         <v>738</v>
       </c>
       <c r="D1477" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1477" s="20" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F1477" s="20" t="s">
         <v>3535</v>
-      </c>
-      <c r="F1477" s="20" t="s">
-        <v>3536</v>
       </c>
       <c r="G1477" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68385,7 +68385,7 @@
     </row>
     <row r="1478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1478" s="21" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="B1478" s="20">
         <v>72020</v>
@@ -68394,13 +68394,13 @@
         <v>738</v>
       </c>
       <c r="D1478" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1478" s="20" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F1478" s="20" t="s">
         <v>3535</v>
-      </c>
-      <c r="F1478" s="20" t="s">
-        <v>3536</v>
       </c>
       <c r="G1478" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68409,7 +68409,7 @@
     </row>
     <row r="1479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1479" s="21" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="B1479" s="20">
         <v>72020</v>
@@ -68418,13 +68418,13 @@
         <v>738</v>
       </c>
       <c r="D1479" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1479" s="20" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F1479" s="20" t="s">
         <v>3535</v>
-      </c>
-      <c r="F1479" s="20" t="s">
-        <v>3536</v>
       </c>
       <c r="G1479" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68433,7 +68433,7 @@
     </row>
     <row r="1480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1480" s="21" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="B1480" s="20">
         <v>72020</v>
@@ -68442,13 +68442,13 @@
         <v>738</v>
       </c>
       <c r="D1480" s="20" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E1480" s="20" t="s">
         <v>3528</v>
       </c>
-      <c r="E1480" s="20" t="s">
+      <c r="F1480" s="20" t="s">
         <v>3529</v>
-      </c>
-      <c r="F1480" s="20" t="s">
-        <v>3530</v>
       </c>
       <c r="G1480" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68457,7 +68457,7 @@
     </row>
     <row r="1481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1481" s="21" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="B1481" s="20">
         <v>72020</v>
@@ -68466,13 +68466,13 @@
         <v>738</v>
       </c>
       <c r="D1481" s="20" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E1481" s="20" t="s">
         <v>3528</v>
       </c>
-      <c r="E1481" s="20" t="s">
+      <c r="F1481" s="20" t="s">
         <v>3529</v>
-      </c>
-      <c r="F1481" s="20" t="s">
-        <v>3530</v>
       </c>
       <c r="G1481" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68481,7 +68481,7 @@
     </row>
     <row r="1482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1482" s="21" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="B1482" s="20">
         <v>72020</v>
@@ -68490,13 +68490,13 @@
         <v>738</v>
       </c>
       <c r="D1482" s="20" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E1482" s="20" t="s">
         <v>3528</v>
       </c>
-      <c r="E1482" s="20" t="s">
+      <c r="F1482" s="20" t="s">
         <v>3529</v>
-      </c>
-      <c r="F1482" s="20" t="s">
-        <v>3530</v>
       </c>
       <c r="G1482" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68505,7 +68505,7 @@
     </row>
     <row r="1483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1483" s="21" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="B1483" s="20">
         <v>72020</v>
@@ -68514,13 +68514,13 @@
         <v>738</v>
       </c>
       <c r="D1483" s="20" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E1483" s="20" t="s">
         <v>3528</v>
       </c>
-      <c r="E1483" s="20" t="s">
+      <c r="F1483" s="20" t="s">
         <v>3529</v>
-      </c>
-      <c r="F1483" s="20" t="s">
-        <v>3530</v>
       </c>
       <c r="G1483" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68529,7 +68529,7 @@
     </row>
     <row r="1484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1484" s="21" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="B1484" s="20">
         <v>72020</v>
@@ -68538,10 +68538,10 @@
         <v>738</v>
       </c>
       <c r="D1484" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1484" s="20" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="F1484" s="20" t="s">
         <v>2194</v>
@@ -68553,7 +68553,7 @@
     </row>
     <row r="1485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1485" s="21" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="B1485" s="20">
         <v>72020</v>
@@ -68562,10 +68562,10 @@
         <v>738</v>
       </c>
       <c r="D1485" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1485" s="20" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="F1485" s="20" t="s">
         <v>2194</v>
@@ -68577,7 +68577,7 @@
     </row>
     <row r="1486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1486" s="21" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="B1486" s="20">
         <v>72020</v>
@@ -68586,10 +68586,10 @@
         <v>738</v>
       </c>
       <c r="D1486" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1486" s="20" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="F1486" s="20" t="s">
         <v>2194</v>
@@ -68601,7 +68601,7 @@
     </row>
     <row r="1487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1487" s="21" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="B1487" s="20">
         <v>72020</v>
@@ -68610,10 +68610,10 @@
         <v>738</v>
       </c>
       <c r="D1487" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1487" s="20" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="F1487" s="20" t="s">
         <v>2194</v>
@@ -68625,7 +68625,7 @@
     </row>
     <row r="1488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1488" s="21" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="B1488" s="20">
         <v>72020</v>
@@ -68634,10 +68634,10 @@
         <v>738</v>
       </c>
       <c r="D1488" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1488" s="20" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="F1488" s="20" t="s">
         <v>2194</v>
@@ -68649,7 +68649,7 @@
     </row>
     <row r="1489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1489" s="21" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B1489" s="20">
         <v>72020</v>
@@ -68658,13 +68658,13 @@
         <v>738</v>
       </c>
       <c r="D1489" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1489" s="20" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F1489" s="20" t="s">
         <v>3558</v>
-      </c>
-      <c r="F1489" s="20" t="s">
-        <v>3559</v>
       </c>
       <c r="G1489" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68673,7 +68673,7 @@
     </row>
     <row r="1490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1490" s="21" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="B1490" s="20">
         <v>72020</v>
@@ -68682,13 +68682,13 @@
         <v>738</v>
       </c>
       <c r="D1490" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1490" s="20" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1490" s="20" t="s">
         <v>3561</v>
-      </c>
-      <c r="F1490" s="20" t="s">
-        <v>3562</v>
       </c>
       <c r="G1490" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68697,7 +68697,7 @@
     </row>
     <row r="1491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1491" s="21" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B1491" s="20">
         <v>72020</v>
@@ -68706,13 +68706,13 @@
         <v>738</v>
       </c>
       <c r="D1491" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1491" s="20" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1491" s="20" t="s">
         <v>3561</v>
-      </c>
-      <c r="F1491" s="20" t="s">
-        <v>3562</v>
       </c>
       <c r="G1491" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68721,7 +68721,7 @@
     </row>
     <row r="1492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1492" s="21" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="B1492" s="20">
         <v>72020</v>
@@ -68730,13 +68730,13 @@
         <v>738</v>
       </c>
       <c r="D1492" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1492" s="20" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1492" s="20" t="s">
         <v>3561</v>
-      </c>
-      <c r="F1492" s="20" t="s">
-        <v>3562</v>
       </c>
       <c r="G1492" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68745,7 +68745,7 @@
     </row>
     <row r="1493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1493" s="21" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="B1493" s="20">
         <v>72020</v>
@@ -68754,13 +68754,13 @@
         <v>738</v>
       </c>
       <c r="D1493" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1493" s="20" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1493" s="20" t="s">
         <v>3561</v>
-      </c>
-      <c r="F1493" s="20" t="s">
-        <v>3562</v>
       </c>
       <c r="G1493" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68769,7 +68769,7 @@
     </row>
     <row r="1494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1494" s="21" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="B1494" s="20">
         <v>72020</v>
@@ -68778,13 +68778,13 @@
         <v>738</v>
       </c>
       <c r="D1494" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1494" s="20" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1494" s="20" t="s">
         <v>3561</v>
-      </c>
-      <c r="F1494" s="20" t="s">
-        <v>3562</v>
       </c>
       <c r="G1494" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68793,7 +68793,7 @@
     </row>
     <row r="1495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1495" s="21" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B1495" s="20">
         <v>72020</v>
@@ -68802,13 +68802,13 @@
         <v>738</v>
       </c>
       <c r="D1495" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1495" s="20" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1495" s="20" t="s">
         <v>3561</v>
-      </c>
-      <c r="F1495" s="20" t="s">
-        <v>3562</v>
       </c>
       <c r="G1495" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68817,7 +68817,7 @@
     </row>
     <row r="1496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1496" s="21" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="B1496" s="20">
         <v>72020</v>
@@ -68826,13 +68826,13 @@
         <v>738</v>
       </c>
       <c r="D1496" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1496" s="20" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1496" s="20" t="s">
         <v>3561</v>
-      </c>
-      <c r="F1496" s="20" t="s">
-        <v>3562</v>
       </c>
       <c r="G1496" s="22" t="str">
         <f t="shared" si="23"/>
@@ -68841,7 +68841,7 @@
     </row>
     <row r="1497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1497" s="21" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="B1497" s="20">
         <v>72020</v>
@@ -68850,10 +68850,10 @@
         <v>738</v>
       </c>
       <c r="D1497" s="20" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="E1497" s="20" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1497" s="20" t="s">
         <v>1267</v>
@@ -77525,7 +77525,7 @@
         <v>1935</v>
       </c>
       <c r="G1858" s="12" t="str">
-        <f t="shared" ref="G1858:G1921" si="29">CONCATENATE(B1858,F1858)</f>
+        <f t="shared" ref="G1858:G1883" si="29">CONCATENATE(B1858,F1858)</f>
         <v>7204303</v>
       </c>
     </row>
@@ -78131,7 +78131,7 @@
     </row>
     <row r="1884" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1884" s="19" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="B1884" s="19">
         <v>36015</v>
@@ -78143,18 +78143,18 @@
         <v>3415</v>
       </c>
       <c r="E1884" s="19" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F1884" s="19" t="s">
         <v>3518</v>
       </c>
-      <c r="F1884" s="19" t="s">
+      <c r="G1884" s="19" t="s">
         <v>3519</v>
-      </c>
-      <c r="G1884" s="19" t="s">
-        <v>3520</v>
       </c>
     </row>
     <row r="1885" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1885" s="19" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="B1885" s="19">
         <v>36015</v>
@@ -78166,18 +78166,18 @@
         <v>3415</v>
       </c>
       <c r="E1885" s="19" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F1885" s="19" t="s">
         <v>3518</v>
       </c>
-      <c r="F1885" s="19" t="s">
+      <c r="G1885" s="19" t="s">
         <v>3519</v>
-      </c>
-      <c r="G1885" s="19" t="s">
-        <v>3520</v>
       </c>
     </row>
     <row r="1886" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1886" s="19" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="B1886" s="19">
         <v>36015</v>
@@ -78192,15 +78192,15 @@
         <v>710</v>
       </c>
       <c r="F1886" s="19" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G1886" s="19" t="s">
         <v>3482</v>
-      </c>
-      <c r="G1886" s="19" t="s">
-        <v>3483</v>
       </c>
     </row>
     <row r="1887" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1887" s="19" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="B1887" s="19">
         <v>36015</v>
@@ -78215,15 +78215,15 @@
         <v>710</v>
       </c>
       <c r="F1887" s="19" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G1887" s="19" t="s">
         <v>3482</v>
-      </c>
-      <c r="G1887" s="19" t="s">
-        <v>3483</v>
       </c>
     </row>
     <row r="1888" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1888" s="19" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="B1888" s="19">
         <v>36015</v>
@@ -78238,15 +78238,15 @@
         <v>710</v>
       </c>
       <c r="F1888" s="19" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G1888" s="19" t="s">
         <v>3482</v>
-      </c>
-      <c r="G1888" s="19" t="s">
-        <v>3483</v>
       </c>
     </row>
     <row r="1889" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1889" s="19" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="B1889" s="19">
         <v>36015</v>
@@ -78261,15 +78261,15 @@
         <v>710</v>
       </c>
       <c r="F1889" s="19" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G1889" s="19" t="s">
         <v>3482</v>
-      </c>
-      <c r="G1889" s="19" t="s">
-        <v>3483</v>
       </c>
     </row>
     <row r="1890" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1890" s="19" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="B1890" s="19">
         <v>36015</v>
@@ -78284,15 +78284,15 @@
         <v>710</v>
       </c>
       <c r="F1890" s="19" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G1890" s="19" t="s">
         <v>3482</v>
-      </c>
-      <c r="G1890" s="19" t="s">
-        <v>3483</v>
       </c>
     </row>
     <row r="1891" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1891" s="19" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="B1891" s="19">
         <v>36015</v>
@@ -78307,15 +78307,15 @@
         <v>710</v>
       </c>
       <c r="F1891" s="19" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G1891" s="19" t="s">
         <v>3482</v>
-      </c>
-      <c r="G1891" s="19" t="s">
-        <v>3483</v>
       </c>
     </row>
     <row r="1892" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1892" s="19" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="B1892" s="19">
         <v>36015</v>
@@ -78330,10 +78330,10 @@
         <v>710</v>
       </c>
       <c r="F1892" s="19" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G1892" s="19" t="s">
         <v>3482</v>
-      </c>
-      <c r="G1892" s="19" t="s">
-        <v>3483</v>
       </c>
     </row>
     <row r="1893" spans="1:7" x14ac:dyDescent="0.35">
@@ -78453,7 +78453,7 @@
     </row>
     <row r="1898" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1898" s="19" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="B1898" s="19">
         <v>36015</v>
@@ -78476,7 +78476,7 @@
     </row>
     <row r="1899" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1899" s="19" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="B1899" s="19">
         <v>36015</v>
@@ -78499,7 +78499,7 @@
     </row>
     <row r="1900" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1900" s="19" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="B1900" s="19">
         <v>36015</v>
@@ -78522,7 +78522,7 @@
     </row>
     <row r="1901" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1901" s="19" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="B1901" s="19">
         <v>36015</v>
@@ -78545,7 +78545,7 @@
     </row>
     <row r="1902" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1902" s="19" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="B1902" s="19">
         <v>36015</v>
@@ -78557,18 +78557,18 @@
         <v>3415</v>
       </c>
       <c r="E1902" s="19" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F1902" s="19" t="s">
         <v>3453</v>
       </c>
-      <c r="F1902" s="19" t="s">
+      <c r="G1902" s="19" t="s">
         <v>3454</v>
-      </c>
-      <c r="G1902" s="19" t="s">
-        <v>3455</v>
       </c>
     </row>
     <row r="1903" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1903" s="19" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="B1903" s="19">
         <v>36015</v>
@@ -78580,13 +78580,13 @@
         <v>3415</v>
       </c>
       <c r="E1903" s="19" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F1903" s="19" t="s">
         <v>3453</v>
       </c>
-      <c r="F1903" s="19" t="s">
+      <c r="G1903" s="19" t="s">
         <v>3454</v>
-      </c>
-      <c r="G1903" s="19" t="s">
-        <v>3455</v>
       </c>
     </row>
     <row r="1904" spans="1:7" x14ac:dyDescent="0.35">
@@ -78614,7 +78614,7 @@
     </row>
     <row r="1905" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1905" s="19" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="B1905" s="19">
         <v>36015</v>
@@ -78637,7 +78637,7 @@
     </row>
     <row r="1906" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1906" s="19" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="B1906" s="19">
         <v>36015</v>
@@ -78660,7 +78660,7 @@
     </row>
     <row r="1907" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1907" s="19" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="B1907" s="19">
         <v>36015</v>
@@ -78672,18 +78672,18 @@
         <v>3415</v>
       </c>
       <c r="E1907" s="19" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F1907" s="19" t="s">
         <v>3472</v>
       </c>
-      <c r="F1907" s="19" t="s">
+      <c r="G1907" s="19" t="s">
         <v>3473</v>
-      </c>
-      <c r="G1907" s="19" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="1908" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1908" s="19" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B1908" s="19">
         <v>36015</v>
@@ -78695,18 +78695,18 @@
         <v>3415</v>
       </c>
       <c r="E1908" s="19" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F1908" s="19" t="s">
         <v>3472</v>
       </c>
-      <c r="F1908" s="19" t="s">
+      <c r="G1908" s="19" t="s">
         <v>3473</v>
-      </c>
-      <c r="G1908" s="19" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="1909" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1909" s="19" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="B1909" s="19">
         <v>36015</v>
@@ -78718,18 +78718,18 @@
         <v>3415</v>
       </c>
       <c r="E1909" s="19" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F1909" s="19" t="s">
         <v>3472</v>
       </c>
-      <c r="F1909" s="19" t="s">
+      <c r="G1909" s="19" t="s">
         <v>3473</v>
-      </c>
-      <c r="G1909" s="19" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="1910" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1910" s="19" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="B1910" s="19">
         <v>36015</v>
@@ -78741,18 +78741,18 @@
         <v>3415</v>
       </c>
       <c r="E1910" s="19" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F1910" s="19" t="s">
         <v>3472</v>
       </c>
-      <c r="F1910" s="19" t="s">
+      <c r="G1910" s="19" t="s">
         <v>3473</v>
-      </c>
-      <c r="G1910" s="19" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="1911" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1911" s="19" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="B1911" s="19">
         <v>36015</v>
@@ -78764,18 +78764,18 @@
         <v>3415</v>
       </c>
       <c r="E1911" s="19" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F1911" s="19" t="s">
         <v>3472</v>
       </c>
-      <c r="F1911" s="19" t="s">
+      <c r="G1911" s="19" t="s">
         <v>3473</v>
-      </c>
-      <c r="G1911" s="19" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="1912" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1912" s="19" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="B1912" s="19">
         <v>36015</v>
@@ -78787,13 +78787,13 @@
         <v>3415</v>
       </c>
       <c r="E1912" s="19" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F1912" s="19" t="s">
         <v>3472</v>
       </c>
-      <c r="F1912" s="19" t="s">
+      <c r="G1912" s="19" t="s">
         <v>3473</v>
-      </c>
-      <c r="G1912" s="19" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="1913" spans="1:7" x14ac:dyDescent="0.35">
@@ -78948,7 +78948,7 @@
         <v>3415</v>
       </c>
       <c r="E1919" s="19" t="s">
-        <v>3436</v>
+        <v>3427</v>
       </c>
       <c r="F1919" s="19" t="s">
         <v>3428</v>
@@ -78959,7 +78959,7 @@
     </row>
     <row r="1920" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1920" s="19" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="B1920" s="19">
         <v>36015</v>
@@ -78982,7 +78982,7 @@
     </row>
     <row r="1921" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1921" s="19" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="B1921" s="19">
         <v>36015</v>
@@ -78994,18 +78994,18 @@
         <v>3415</v>
       </c>
       <c r="E1921" s="19" t="s">
+        <v>3447</v>
+      </c>
+      <c r="F1921" s="19" t="s">
         <v>3448</v>
       </c>
-      <c r="F1921" s="19" t="s">
+      <c r="G1921" s="19" t="s">
         <v>3449</v>
-      </c>
-      <c r="G1921" s="19" t="s">
-        <v>3450</v>
       </c>
     </row>
     <row r="1922" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1922" s="19" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B1922" s="19">
         <v>36015</v>
@@ -79017,18 +79017,18 @@
         <v>3415</v>
       </c>
       <c r="E1922" s="19" t="s">
+        <v>3447</v>
+      </c>
+      <c r="F1922" s="19" t="s">
         <v>3448</v>
       </c>
-      <c r="F1922" s="19" t="s">
+      <c r="G1922" s="19" t="s">
         <v>3449</v>
-      </c>
-      <c r="G1922" s="19" t="s">
-        <v>3450</v>
       </c>
     </row>
     <row r="1923" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1923" s="19" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B1923" s="19">
         <v>36015</v>
@@ -79040,18 +79040,18 @@
         <v>3415</v>
       </c>
       <c r="E1923" s="19" t="s">
+        <v>3447</v>
+      </c>
+      <c r="F1923" s="19" t="s">
         <v>3448</v>
       </c>
-      <c r="F1923" s="19" t="s">
+      <c r="G1923" s="19" t="s">
         <v>3449</v>
-      </c>
-      <c r="G1923" s="19" t="s">
-        <v>3450</v>
       </c>
     </row>
     <row r="1924" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1924" s="19" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="B1924" s="19">
         <v>36015</v>
@@ -79063,18 +79063,18 @@
         <v>3415</v>
       </c>
       <c r="E1924" s="19" t="s">
+        <v>3447</v>
+      </c>
+      <c r="F1924" s="19" t="s">
         <v>3448</v>
       </c>
-      <c r="F1924" s="19" t="s">
+      <c r="G1924" s="19" t="s">
         <v>3449</v>
-      </c>
-      <c r="G1924" s="19" t="s">
-        <v>3450</v>
       </c>
     </row>
     <row r="1925" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1925" s="19" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="B1925" s="19">
         <v>36015</v>
@@ -79086,18 +79086,18 @@
         <v>3415</v>
       </c>
       <c r="E1925" s="19" t="s">
+        <v>3447</v>
+      </c>
+      <c r="F1925" s="19" t="s">
         <v>3448</v>
       </c>
-      <c r="F1925" s="19" t="s">
+      <c r="G1925" s="19" t="s">
         <v>3449</v>
-      </c>
-      <c r="G1925" s="19" t="s">
-        <v>3450</v>
       </c>
     </row>
     <row r="1926" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1926" s="19" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="B1926" s="19">
         <v>36015</v>
@@ -79109,18 +79109,18 @@
         <v>3415</v>
       </c>
       <c r="E1926" s="19" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F1926" s="19" t="s">
         <v>3494</v>
       </c>
-      <c r="F1926" s="19" t="s">
+      <c r="G1926" s="19" t="s">
         <v>3495</v>
-      </c>
-      <c r="G1926" s="19" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="1927" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1927" s="19" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="B1927" s="19">
         <v>36015</v>
@@ -79132,18 +79132,18 @@
         <v>3415</v>
       </c>
       <c r="E1927" s="19" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F1927" s="19" t="s">
         <v>3494</v>
       </c>
-      <c r="F1927" s="19" t="s">
+      <c r="G1927" s="19" t="s">
         <v>3495</v>
-      </c>
-      <c r="G1927" s="19" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="1928" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1928" s="19" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="B1928" s="19">
         <v>36015</v>
@@ -79155,18 +79155,18 @@
         <v>3415</v>
       </c>
       <c r="E1928" s="19" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F1928" s="19" t="s">
         <v>3494</v>
       </c>
-      <c r="F1928" s="19" t="s">
+      <c r="G1928" s="19" t="s">
         <v>3495</v>
-      </c>
-      <c r="G1928" s="19" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="1929" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1929" s="19" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="B1929" s="19">
         <v>36015</v>
@@ -79178,18 +79178,18 @@
         <v>3415</v>
       </c>
       <c r="E1929" s="19" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F1929" s="19" t="s">
         <v>3494</v>
       </c>
-      <c r="F1929" s="19" t="s">
+      <c r="G1929" s="19" t="s">
         <v>3495</v>
-      </c>
-      <c r="G1929" s="19" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="1930" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1930" s="19" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="B1930" s="19">
         <v>36015</v>
@@ -79201,18 +79201,18 @@
         <v>3415</v>
       </c>
       <c r="E1930" s="19" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F1930" s="19" t="s">
         <v>3494</v>
       </c>
-      <c r="F1930" s="19" t="s">
+      <c r="G1930" s="19" t="s">
         <v>3495</v>
-      </c>
-      <c r="G1930" s="19" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="1931" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1931" s="19" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="B1931" s="19">
         <v>36015</v>
@@ -79224,18 +79224,18 @@
         <v>3415</v>
       </c>
       <c r="E1931" s="19" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F1931" s="19" t="s">
         <v>3494</v>
       </c>
-      <c r="F1931" s="19" t="s">
+      <c r="G1931" s="19" t="s">
         <v>3495</v>
-      </c>
-      <c r="G1931" s="19" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="1932" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1932" s="19" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B1932" s="19">
         <v>36015</v>
@@ -79247,18 +79247,18 @@
         <v>3415</v>
       </c>
       <c r="E1932" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1932" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1932" s="19" t="s">
+      <c r="G1932" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1932" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1933" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1933" s="19" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B1933" s="19">
         <v>36015</v>
@@ -79270,18 +79270,18 @@
         <v>3415</v>
       </c>
       <c r="E1933" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1933" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1933" s="19" t="s">
+      <c r="G1933" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1933" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1934" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1934" s="19" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B1934" s="19">
         <v>36015</v>
@@ -79293,18 +79293,18 @@
         <v>3415</v>
       </c>
       <c r="E1934" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1934" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1934" s="19" t="s">
+      <c r="G1934" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1934" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1935" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1935" s="19" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B1935" s="19">
         <v>36015</v>
@@ -79316,18 +79316,18 @@
         <v>3415</v>
       </c>
       <c r="E1935" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1935" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1935" s="19" t="s">
+      <c r="G1935" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1935" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1936" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1936" s="19" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B1936" s="19">
         <v>36015</v>
@@ -79339,18 +79339,18 @@
         <v>3415</v>
       </c>
       <c r="E1936" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1936" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1936" s="19" t="s">
+      <c r="G1936" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1936" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1937" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1937" s="19" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B1937" s="19">
         <v>36015</v>
@@ -79362,18 +79362,18 @@
         <v>3415</v>
       </c>
       <c r="E1937" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1937" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1937" s="19" t="s">
+      <c r="G1937" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1937" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1938" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1938" s="19" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B1938" s="19">
         <v>36015</v>
@@ -79385,18 +79385,18 @@
         <v>3415</v>
       </c>
       <c r="E1938" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1938" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1938" s="19" t="s">
+      <c r="G1938" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1938" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1939" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1939" s="19" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="B1939" s="19">
         <v>36015</v>
@@ -79408,18 +79408,18 @@
         <v>3415</v>
       </c>
       <c r="E1939" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1939" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1939" s="19" t="s">
+      <c r="G1939" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1939" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1940" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1940" s="19" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="B1940" s="19">
         <v>36015</v>
@@ -79431,18 +79431,18 @@
         <v>3415</v>
       </c>
       <c r="E1940" s="19" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F1940" s="19" t="s">
         <v>3502</v>
       </c>
-      <c r="F1940" s="19" t="s">
+      <c r="G1940" s="19" t="s">
         <v>3503</v>
-      </c>
-      <c r="G1940" s="19" t="s">
-        <v>3504</v>
       </c>
     </row>
     <row r="1941" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1941" s="19" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="B1941" s="19">
         <v>36015</v>
@@ -79454,18 +79454,18 @@
         <v>3415</v>
       </c>
       <c r="E1941" s="19" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F1941" s="19" t="s">
         <v>3464</v>
       </c>
-      <c r="F1941" s="19" t="s">
+      <c r="G1941" s="19" t="s">
         <v>3465</v>
-      </c>
-      <c r="G1941" s="19" t="s">
-        <v>3466</v>
       </c>
     </row>
     <row r="1942" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1942" s="19" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="B1942" s="19">
         <v>36015</v>
@@ -79477,18 +79477,18 @@
         <v>3415</v>
       </c>
       <c r="E1942" s="19" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F1942" s="19" t="s">
         <v>3464</v>
       </c>
-      <c r="F1942" s="19" t="s">
+      <c r="G1942" s="19" t="s">
         <v>3465</v>
-      </c>
-      <c r="G1942" s="19" t="s">
-        <v>3466</v>
       </c>
     </row>
     <row r="1943" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1943" s="19" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="B1943" s="19">
         <v>36015</v>
@@ -79500,18 +79500,18 @@
         <v>3415</v>
       </c>
       <c r="E1943" s="19" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F1943" s="19" t="s">
         <v>3464</v>
       </c>
-      <c r="F1943" s="19" t="s">
+      <c r="G1943" s="19" t="s">
         <v>3465</v>
-      </c>
-      <c r="G1943" s="19" t="s">
-        <v>3466</v>
       </c>
     </row>
     <row r="1944" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1944" s="19" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="B1944" s="19">
         <v>36015</v>
@@ -79523,18 +79523,18 @@
         <v>3415</v>
       </c>
       <c r="E1944" s="19" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F1944" s="19" t="s">
         <v>3464</v>
       </c>
-      <c r="F1944" s="19" t="s">
+      <c r="G1944" s="19" t="s">
         <v>3465</v>
-      </c>
-      <c r="G1944" s="19" t="s">
-        <v>3466</v>
       </c>
     </row>
     <row r="1945" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1945" s="19" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="B1945" s="19">
         <v>36015</v>
@@ -79546,18 +79546,18 @@
         <v>3415</v>
       </c>
       <c r="E1945" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1945" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1945" s="19" t="s">
+      <c r="G1945" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1945" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1946" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1946" s="19" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="B1946" s="19">
         <v>36015</v>
@@ -79569,18 +79569,18 @@
         <v>3415</v>
       </c>
       <c r="E1946" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1946" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1946" s="19" t="s">
+      <c r="G1946" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1946" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1947" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1947" s="19" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="B1947" s="19">
         <v>36015</v>
@@ -79592,18 +79592,18 @@
         <v>3415</v>
       </c>
       <c r="E1947" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1947" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1947" s="19" t="s">
+      <c r="G1947" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1947" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1948" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1948" s="19" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="B1948" s="19">
         <v>36015</v>
@@ -79615,18 +79615,18 @@
         <v>3415</v>
       </c>
       <c r="E1948" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1948" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1948" s="19" t="s">
+      <c r="G1948" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1948" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1949" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1949" s="19" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B1949" s="19">
         <v>36015</v>
@@ -79638,18 +79638,18 @@
         <v>3415</v>
       </c>
       <c r="E1949" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1949" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1949" s="19" t="s">
+      <c r="G1949" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1949" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1950" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1950" s="19" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B1950" s="19">
         <v>36015</v>
@@ -79661,18 +79661,18 @@
         <v>3415</v>
       </c>
       <c r="E1950" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1950" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1950" s="19" t="s">
+      <c r="G1950" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1950" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1951" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1951" s="19" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="B1951" s="19">
         <v>36015</v>
@@ -79684,18 +79684,18 @@
         <v>3415</v>
       </c>
       <c r="E1951" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1951" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1951" s="19" t="s">
+      <c r="G1951" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1951" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1952" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1952" s="19" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="B1952" s="19">
         <v>36015</v>
@@ -79707,18 +79707,18 @@
         <v>3415</v>
       </c>
       <c r="E1952" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1952" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1952" s="19" t="s">
+      <c r="G1952" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1952" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1953" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1953" s="19" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="B1953" s="19">
         <v>36015</v>
@@ -79730,18 +79730,18 @@
         <v>3415</v>
       </c>
       <c r="E1953" s="19" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1953" s="19" t="s">
         <v>3441</v>
       </c>
-      <c r="F1953" s="19" t="s">
+      <c r="G1953" s="19" t="s">
         <v>3442</v>
-      </c>
-      <c r="G1953" s="19" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1954" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1954" s="9" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="B1954" s="19">
         <v>36015</v>
@@ -79753,18 +79753,18 @@
         <v>3415</v>
       </c>
       <c r="E1954" s="3" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="F1954" s="2" t="s">
         <v>1267</v>
       </c>
       <c r="G1954" s="12" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1955" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1955" s="19" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="B1955" s="19">
         <v>36015</v>
@@ -79776,18 +79776,18 @@
         <v>3415</v>
       </c>
       <c r="E1955" s="19" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F1955" s="19" t="s">
         <v>3458</v>
       </c>
-      <c r="F1955" s="19" t="s">
+      <c r="G1955" s="19" t="s">
         <v>3459</v>
-      </c>
-      <c r="G1955" s="19" t="s">
-        <v>3460</v>
       </c>
     </row>
     <row r="1956" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1956" s="19" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B1956" s="19">
         <v>36015</v>
@@ -79799,18 +79799,18 @@
         <v>3415</v>
       </c>
       <c r="E1956" s="19" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F1956" s="19" t="s">
         <v>3458</v>
       </c>
-      <c r="F1956" s="19" t="s">
+      <c r="G1956" s="19" t="s">
         <v>3459</v>
-      </c>
-      <c r="G1956" s="19" t="s">
-        <v>3460</v>
       </c>
     </row>
     <row r="1957" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1957" s="19" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B1957" s="19">
         <v>36015</v>
@@ -79822,18 +79822,18 @@
         <v>3415</v>
       </c>
       <c r="E1957" s="19" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F1957" s="19" t="s">
         <v>3458</v>
       </c>
-      <c r="F1957" s="19" t="s">
+      <c r="G1957" s="19" t="s">
         <v>3459</v>
-      </c>
-      <c r="G1957" s="19" t="s">
-        <v>3460</v>
       </c>
     </row>
     <row r="1958" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1958" s="19" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B1958" s="19">
         <v>36015</v>
@@ -79845,13 +79845,13 @@
         <v>3415</v>
       </c>
       <c r="E1958" s="19" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F1958" s="19" t="s">
         <v>3458</v>
       </c>
-      <c r="F1958" s="19" t="s">
+      <c r="G1958" s="19" t="s">
         <v>3459</v>
-      </c>
-      <c r="G1958" s="19" t="s">
-        <v>3460</v>
       </c>
     </row>
     <row r="1959" spans="1:7" x14ac:dyDescent="0.35">
@@ -84483,7 +84483,7 @@
         <v>1935</v>
       </c>
       <c r="G2151" s="12" t="str">
-        <f t="shared" ref="G2151:G2182" si="36">CONCATENATE(B2151,F2151)</f>
+        <f t="shared" ref="G2151:G2157" si="36">CONCATENATE(B2151,F2151)</f>
         <v>7106703</v>
       </c>
     </row>
